--- a/results/case2_apos/data_uniquie_case2_apos_recipe.xlsx
+++ b/results/case2_apos/data_uniquie_case2_apos_recipe.xlsx
@@ -1157,132 +1157,132 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>0.01200668301749289</v>
+        <v>0.0005067526031520283</v>
       </c>
       <c r="B12">
-        <v>3.587522072826172</v>
+        <v>0.2090724706884836</v>
       </c>
       <c r="C12">
-        <v>0.7517799073850943</v>
+        <v>0.01296366830762531</v>
       </c>
       <c r="D12">
-        <v>0.9481718441264334</v>
+        <v>0.01690434866104697</v>
       </c>
       <c r="E12">
-        <v>38.26011731809174</v>
+        <v>0.5827241914471809</v>
       </c>
       <c r="F12">
-        <v>0.9240499451405749</v>
+        <v>0.05504800940195645</v>
       </c>
       <c r="G12">
-        <v>0.003421065141599414</v>
+        <v>0.0001737504426518152</v>
       </c>
       <c r="H12">
-        <v>0.001526492543796361</v>
+        <v>1.504736185390086E-05</v>
       </c>
       <c r="I12">
-        <v>0.3391493534652054</v>
+        <v>0.01732091391045935</v>
       </c>
       <c r="J12">
-        <v>10.44930731886877</v>
+        <v>0.3091296865765504</v>
       </c>
       <c r="K12">
-        <v>0.9969391855257984</v>
+        <v>0.06332675888059568</v>
       </c>
       <c r="L12">
-        <v>0.7087070206320615</v>
+        <v>0.04609385903847021</v>
       </c>
       <c r="M12">
-        <v>0.04612451526866012</v>
+        <v>0.001418516711202861</v>
       </c>
       <c r="N12">
-        <v>4.133021217902621E-06</v>
+        <v>2.385586208297715E-07</v>
       </c>
       <c r="O12">
-        <v>0.004170292016306696</v>
+        <v>0.0001724649998550197</v>
       </c>
       <c r="P12">
-        <v>0.007611849751414674</v>
+        <v>0.0004212606495542706</v>
       </c>
       <c r="Q12">
-        <v>0.007803643476248098</v>
+        <v>0.0004307688803806846</v>
       </c>
       <c r="R12">
-        <v>0.06400323845821669</v>
+        <v>0.003780096969557395</v>
       </c>
       <c r="S12">
-        <v>2.32340355181558E-08</v>
+        <v>1.291043529270773E-09</v>
       </c>
       <c r="T12">
-        <v>9.617353898107757E-06</v>
+        <v>4.398193128580457E-07</v>
       </c>
       <c r="U12">
-        <v>0.1875385482492851</v>
+        <v>0.01027810046310405</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.0005067526031520283</v>
+        <v>0.01200668301749289</v>
       </c>
       <c r="B13">
-        <v>0.2090724706884836</v>
+        <v>3.587522072826172</v>
       </c>
       <c r="C13">
-        <v>0.01296366830762531</v>
+        <v>0.7517799073850943</v>
       </c>
       <c r="D13">
-        <v>0.01690434866104697</v>
+        <v>0.9481718441264334</v>
       </c>
       <c r="E13">
-        <v>0.5827241914471809</v>
+        <v>38.26011731809174</v>
       </c>
       <c r="F13">
-        <v>0.05504800940195645</v>
+        <v>0.9240499451405749</v>
       </c>
       <c r="G13">
-        <v>0.0001737504426518152</v>
+        <v>0.003421065141599414</v>
       </c>
       <c r="H13">
-        <v>1.504736185390086E-05</v>
+        <v>0.001526492543796361</v>
       </c>
       <c r="I13">
-        <v>0.01732091391045935</v>
+        <v>0.3391493534652054</v>
       </c>
       <c r="J13">
-        <v>0.3091296865765504</v>
+        <v>10.44930731886877</v>
       </c>
       <c r="K13">
-        <v>0.06332675888059568</v>
+        <v>0.9969391855257984</v>
       </c>
       <c r="L13">
-        <v>0.04609385903847021</v>
+        <v>0.7087070206320615</v>
       </c>
       <c r="M13">
-        <v>0.001418516711202861</v>
+        <v>0.04612451526866012</v>
       </c>
       <c r="N13">
-        <v>2.385586208297715E-07</v>
+        <v>4.133021217902621E-06</v>
       </c>
       <c r="O13">
-        <v>0.0001724649998550197</v>
+        <v>0.004170292016306696</v>
       </c>
       <c r="P13">
-        <v>0.0004212606495542706</v>
+        <v>0.007611849751414674</v>
       </c>
       <c r="Q13">
-        <v>0.0004307688803806846</v>
+        <v>0.007803643476248098</v>
       </c>
       <c r="R13">
-        <v>0.003780096969557395</v>
+        <v>0.06400323845821669</v>
       </c>
       <c r="S13">
-        <v>1.291043529270773E-09</v>
+        <v>2.32340355181558E-08</v>
       </c>
       <c r="T13">
-        <v>4.398193128580457E-07</v>
+        <v>9.617353898107757E-06</v>
       </c>
       <c r="U13">
-        <v>0.01027810046310405</v>
+        <v>0.1875385482492851</v>
       </c>
     </row>
     <row r="14" spans="1:21">

--- a/results/case2_apos/data_uniquie_case2_apos_recipe.xlsx
+++ b/results/case2_apos/data_uniquie_case2_apos_recipe.xlsx
@@ -507,1107 +507,1107 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>0.0004137409464684264</v>
+        <v>0.0003882063314242451</v>
       </c>
       <c r="B2">
-        <v>0.3505099017926525</v>
+        <v>0.3431074236578536</v>
       </c>
       <c r="C2">
-        <v>0.01387723806669593</v>
+        <v>0.0122135292985705</v>
       </c>
       <c r="D2">
-        <v>0.01967041949286869</v>
+        <v>0.01757206326379144</v>
       </c>
       <c r="E2">
-        <v>0.8361181415654568</v>
+        <v>0.7481075692323833</v>
       </c>
       <c r="F2">
-        <v>0.1216632680572416</v>
+        <v>0.1197572865702453</v>
       </c>
       <c r="G2">
-        <v>1.389746551819142E-05</v>
+        <v>7.362817344084638E-06</v>
       </c>
       <c r="H2">
-        <v>5.624298133446776E-06</v>
+        <v>4.945899789206099E-06</v>
       </c>
       <c r="I2">
-        <v>0.005316516854005606</v>
+        <v>0.004592829012007496</v>
       </c>
       <c r="J2">
-        <v>0.1605389195101029</v>
+        <v>0.1386412746808753</v>
       </c>
       <c r="K2">
-        <v>-0.002906494294632289</v>
+        <v>-0.00495209007824626</v>
       </c>
       <c r="L2">
-        <v>-0.05737403147168055</v>
+        <v>-0.05887632063608469</v>
       </c>
       <c r="M2">
-        <v>0.001951956332531835</v>
+        <v>0.001859627880584929</v>
       </c>
       <c r="N2">
-        <v>-4.599018696257129E-08</v>
+        <v>-5.391753265864774E-08</v>
       </c>
       <c r="O2">
-        <v>0.0001886826627342088</v>
+        <v>0.0001797505152649822</v>
       </c>
       <c r="P2">
-        <v>0.0002670946785672517</v>
+        <v>0.0002512619563295491</v>
       </c>
       <c r="Q2">
-        <v>0.0002903150421471487</v>
+        <v>0.0002740894226858067</v>
       </c>
       <c r="R2">
-        <v>0.001228286877357569</v>
+        <v>0.001097261275225239</v>
       </c>
       <c r="S2">
-        <v>6.286416303818711E-10</v>
+        <v>5.803286993419413E-10</v>
       </c>
       <c r="T2">
-        <v>5.009884781455842E-07</v>
+        <v>4.807853146712306E-07</v>
       </c>
       <c r="U2">
-        <v>0.04919655568053753</v>
+        <v>0.0488168717731401</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>0.0006840084781127945</v>
+        <v>0.0006838743237552608</v>
       </c>
       <c r="B3">
-        <v>0.1877578412949599</v>
+        <v>0.1877127277472248</v>
       </c>
       <c r="C3">
-        <v>0.04348073934647367</v>
+        <v>0.04348092831099516</v>
       </c>
       <c r="D3">
-        <v>0.05493440810729216</v>
+        <v>0.05493461945319568</v>
       </c>
       <c r="E3">
-        <v>2.391798278319657</v>
+        <v>2.391785339053278</v>
       </c>
       <c r="F3">
-        <v>0.04830322458581313</v>
+        <v>0.04829331504022556</v>
       </c>
       <c r="G3">
-        <v>0.0001877221609664109</v>
+        <v>0.0001877230726548113</v>
       </c>
       <c r="H3">
-        <v>9.921412037711492E-05</v>
+        <v>9.921492190242033E-05</v>
       </c>
       <c r="I3">
-        <v>0.0183838561364802</v>
+        <v>0.01838321217589241</v>
       </c>
       <c r="J3">
-        <v>0.6174115365017082</v>
+        <v>0.6174091657785048</v>
       </c>
       <c r="K3">
-        <v>0.05134164128711331</v>
+        <v>0.05135719681543405</v>
       </c>
       <c r="L3">
-        <v>0.0366445819592032</v>
+        <v>0.03664493694325042</v>
       </c>
       <c r="M3">
-        <v>0.00284794801855528</v>
+        <v>0.002847960919481655</v>
       </c>
       <c r="N3">
-        <v>2.201650328347131E-07</v>
+        <v>2.201578546410771E-07</v>
       </c>
       <c r="O3">
-        <v>0.0002368734880398516</v>
+        <v>0.0002367535495990968</v>
       </c>
       <c r="P3">
-        <v>0.0004060804858455592</v>
+        <v>0.0004059579321840019</v>
       </c>
       <c r="Q3">
-        <v>0.0004163730817578929</v>
+        <v>0.0004162492680174823</v>
       </c>
       <c r="R3">
-        <v>0.003411028207931884</v>
+        <v>0.003411111204440431</v>
       </c>
       <c r="S3">
-        <v>1.238557975404641E-09</v>
+        <v>1.238390968774466E-09</v>
       </c>
       <c r="T3">
-        <v>5.3335115239521E-07</v>
+        <v>5.332314081913749E-07</v>
       </c>
       <c r="U3">
-        <v>0.009969443249363337</v>
+        <v>0.009967865449574197</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>0.009062375031067518</v>
+        <v>0.009062374728536974</v>
       </c>
       <c r="B4">
-        <v>3.20525664859912</v>
+        <v>3.205256479722328</v>
       </c>
       <c r="C4">
-        <v>0.08392863756922014</v>
+        <v>0.0839286437804211</v>
       </c>
       <c r="D4">
-        <v>0.1123831774931668</v>
+        <v>0.1123831848076694</v>
       </c>
       <c r="E4">
-        <v>7.421889243664348</v>
+        <v>7.421889390567929</v>
       </c>
       <c r="F4">
-        <v>1.898586570228241</v>
+        <v>1.898586541150847</v>
       </c>
       <c r="G4">
-        <v>0.0008007065760194161</v>
+        <v>0.0008007065573639173</v>
       </c>
       <c r="H4">
-        <v>0.0001144681571959553</v>
+        <v>0.000114468153574355</v>
       </c>
       <c r="I4">
-        <v>0.1324825234814541</v>
+        <v>0.132482475850993</v>
       </c>
       <c r="J4">
-        <v>1.984332425377598</v>
+        <v>1.984332488570211</v>
       </c>
       <c r="K4">
-        <v>0.2024672203231359</v>
+        <v>0.2024672173313559</v>
       </c>
       <c r="L4">
-        <v>0.09313487512417136</v>
+        <v>0.09313487572284186</v>
       </c>
       <c r="M4">
-        <v>0.02102106516995621</v>
+        <v>0.02102106087074463</v>
       </c>
       <c r="N4">
-        <v>5.930314670870113E-07</v>
+        <v>5.930314185543798E-07</v>
       </c>
       <c r="O4">
-        <v>0.004042494848006656</v>
+        <v>0.004042494602684855</v>
       </c>
       <c r="P4">
-        <v>0.007820235617655167</v>
+        <v>0.007820235077145422</v>
       </c>
       <c r="Q4">
-        <v>0.008528614447937188</v>
+        <v>0.008528613894285008</v>
       </c>
       <c r="R4">
-        <v>0.04824888899571556</v>
+        <v>0.04824888849735461</v>
       </c>
       <c r="S4">
-        <v>1.351638306397923E-08</v>
+        <v>1.351638245505422E-08</v>
       </c>
       <c r="T4">
-        <v>6.522986135201959E-06</v>
+        <v>6.522985678852303E-06</v>
       </c>
       <c r="U4">
-        <v>0.7124084706146102</v>
+        <v>0.7124084615820803</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>2.07955929409851E-05</v>
+        <v>2.079559274514854E-05</v>
       </c>
       <c r="B5">
-        <v>0.0009947396126566374</v>
+        <v>0.0009947395372164949</v>
       </c>
       <c r="C5">
-        <v>0.0009575823769000188</v>
+        <v>0.000957582374855469</v>
       </c>
       <c r="D5">
-        <v>0.001492127980865618</v>
+        <v>0.001492127977962738</v>
       </c>
       <c r="E5">
-        <v>0.04272095769207626</v>
+        <v>0.04272095737751461</v>
       </c>
       <c r="F5">
-        <v>0.0002629456163656864</v>
+        <v>0.0002629456027417362</v>
       </c>
       <c r="G5">
-        <v>1.478708853636569E-06</v>
+        <v>1.478708838895536E-06</v>
       </c>
       <c r="H5">
-        <v>8.908300022717072E-08</v>
+        <v>8.908299841533906E-08</v>
       </c>
       <c r="I5">
-        <v>0.0002723185221493995</v>
+        <v>0.0002723185015901487</v>
       </c>
       <c r="J5">
-        <v>0.01792910688333572</v>
+        <v>0.01792910683827502</v>
       </c>
       <c r="K5">
-        <v>7.749260537636715E-05</v>
+        <v>7.749260368739991E-05</v>
       </c>
       <c r="L5">
-        <v>5.159391437725069E-05</v>
+        <v>5.159391355434921E-05</v>
       </c>
       <c r="M5">
-        <v>0.000153526737216424</v>
+        <v>0.0001535267349925197</v>
       </c>
       <c r="N5">
-        <v>2.637568127082263E-09</v>
+        <v>2.637568105155487E-09</v>
       </c>
       <c r="O5">
-        <v>6.990252884759238E-06</v>
+        <v>6.990252761364081E-06</v>
       </c>
       <c r="P5">
-        <v>5.36047364790986E-06</v>
+        <v>5.360473406424085E-06</v>
       </c>
       <c r="Q5">
-        <v>5.499652186560074E-06</v>
+        <v>5.499651938197167E-06</v>
       </c>
       <c r="R5">
-        <v>2.571622912195929E-05</v>
+        <v>2.571622886045624E-05</v>
       </c>
       <c r="S5">
-        <v>1.065958018088411E-11</v>
+        <v>1.065957987357341E-11</v>
       </c>
       <c r="T5">
-        <v>1.037001798438176E-08</v>
+        <v>1.037001775744364E-08</v>
       </c>
       <c r="U5">
-        <v>0.0001119366404156433</v>
+        <v>0.0001119366361264842</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>0.01466648731612479</v>
+        <v>0.01449345123817255</v>
       </c>
       <c r="B6">
-        <v>0.8181332375121704</v>
+        <v>0.7599392831299568</v>
       </c>
       <c r="C6">
-        <v>1.345147233779734</v>
+        <v>1.34539063149911</v>
       </c>
       <c r="D6">
-        <v>1.726873704790681</v>
+        <v>1.727145787551799</v>
       </c>
       <c r="E6">
-        <v>102.7921921517095</v>
+        <v>102.7754548778297</v>
       </c>
       <c r="F6">
-        <v>0.2206027902336158</v>
+        <v>0.2078211747333292</v>
       </c>
       <c r="G6">
-        <v>0.001923555560798108</v>
+        <v>0.001924726230965406</v>
       </c>
       <c r="H6">
-        <v>5.939690711054542E-05</v>
+        <v>6.042956859167487E-05</v>
       </c>
       <c r="I6">
-        <v>0.1693128743256003</v>
+        <v>0.1684747943589419</v>
       </c>
       <c r="J6">
-        <v>19.78708885728676</v>
+        <v>19.78402507622324</v>
       </c>
       <c r="K6">
-        <v>0.08032177251599368</v>
+        <v>0.1003765710080897</v>
       </c>
       <c r="L6">
-        <v>0.05565814158847772</v>
+        <v>0.0561156117744304</v>
       </c>
       <c r="M6">
-        <v>0.06716577587129061</v>
+        <v>0.06718159511666533</v>
       </c>
       <c r="N6">
-        <v>4.961653707521734E-07</v>
+        <v>4.869017151881734E-07</v>
       </c>
       <c r="O6">
-        <v>0.005208655732008955</v>
+        <v>0.005053973963947272</v>
       </c>
       <c r="P6">
-        <v>0.003672453650123185</v>
+        <v>0.003514347484129896</v>
       </c>
       <c r="Q6">
-        <v>0.003766581488433622</v>
+        <v>0.003606847974303233</v>
       </c>
       <c r="R6">
-        <v>0.01074980917895688</v>
+        <v>0.0108567137648576</v>
       </c>
       <c r="S6">
-        <v>9.954979666617218E-09</v>
+        <v>9.739542769673668E-09</v>
       </c>
       <c r="T6">
-        <v>9.132213921451894E-06</v>
+        <v>8.977744436204676E-06</v>
       </c>
       <c r="U6">
-        <v>0.0677477979825455</v>
+        <v>0.06571186791850801</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.007223574003197552</v>
+        <v>0.007223574059338036</v>
       </c>
       <c r="B7">
-        <v>2.428075202736476</v>
+        <v>2.428075209775886</v>
       </c>
       <c r="C7">
-        <v>0.07016811317584468</v>
+        <v>0.07016811778243418</v>
       </c>
       <c r="D7">
-        <v>0.0934466710518181</v>
+        <v>0.09344667692208064</v>
       </c>
       <c r="E7">
-        <v>6.606752814445708</v>
+        <v>6.606753151127034</v>
       </c>
       <c r="F7">
-        <v>1.333466905984905</v>
+        <v>1.333466908343601</v>
       </c>
       <c r="G7">
-        <v>0.0006782903935847897</v>
+        <v>0.0006782904000297307</v>
       </c>
       <c r="H7">
-        <v>0.0001927160515407898</v>
+        <v>0.000192716051907486</v>
       </c>
       <c r="I7">
-        <v>0.1056187914480227</v>
+        <v>0.1056187907220539</v>
       </c>
       <c r="J7">
-        <v>1.852968667684018</v>
+        <v>1.852968733689327</v>
       </c>
       <c r="K7">
-        <v>0.1758859802223389</v>
+        <v>0.1758859807960015</v>
       </c>
       <c r="L7">
-        <v>0.4951721852020974</v>
+        <v>0.4951721833774738</v>
       </c>
       <c r="M7">
-        <v>0.1917812885052326</v>
+        <v>0.1917812887732795</v>
       </c>
       <c r="N7">
-        <v>7.518127520911973E-07</v>
+        <v>7.518127538182646E-07</v>
       </c>
       <c r="O7">
-        <v>0.003281927559336002</v>
+        <v>0.00328192757545809</v>
       </c>
       <c r="P7">
-        <v>0.006287098418090465</v>
+        <v>0.006287098438128158</v>
       </c>
       <c r="Q7">
-        <v>0.006798701569954497</v>
+        <v>0.00679870159436188</v>
       </c>
       <c r="R7">
-        <v>0.04489655188680712</v>
+        <v>0.04489655193436258</v>
       </c>
       <c r="S7">
-        <v>1.41888971763387E-08</v>
+        <v>1.418889720686936E-08</v>
       </c>
       <c r="T7">
-        <v>5.195975152207783E-06</v>
+        <v>5.195975181629121E-06</v>
       </c>
       <c r="U7">
-        <v>0.5372963592678206</v>
+        <v>0.5372963602203253</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>0.002301881215345004</v>
+        <v>0.002301881209050565</v>
       </c>
       <c r="B8">
-        <v>0.1652473798699598</v>
+        <v>0.1652473764922311</v>
       </c>
       <c r="C8">
-        <v>0.01684144119383242</v>
+        <v>0.01684144098305416</v>
       </c>
       <c r="D8">
-        <v>0.02314080473594811</v>
+        <v>0.02314080446120313</v>
       </c>
       <c r="E8">
-        <v>4.33866322235067</v>
+        <v>4.338663208958223</v>
       </c>
       <c r="F8">
-        <v>0.0683605615555244</v>
+        <v>0.06836056082183165</v>
       </c>
       <c r="G8">
-        <v>4.92830018999675E-05</v>
+        <v>4.928300120534907E-05</v>
       </c>
       <c r="H8">
-        <v>9.421560713668071E-06</v>
+        <v>9.421560635483897E-06</v>
       </c>
       <c r="I8">
-        <v>0.02807747623335543</v>
+        <v>0.0280774756623421</v>
       </c>
       <c r="J8">
-        <v>0.3179891275467485</v>
+        <v>0.3179891244207774</v>
       </c>
       <c r="K8">
-        <v>0.009525746052058281</v>
+        <v>0.009525745953512153</v>
       </c>
       <c r="L8">
-        <v>0.003024483115416474</v>
+        <v>0.003024483034777371</v>
       </c>
       <c r="M8">
-        <v>0.00894178767800682</v>
+        <v>0.008941787598427014</v>
       </c>
       <c r="N8">
-        <v>8.265723150617097E-08</v>
+        <v>8.265723083101339E-08</v>
       </c>
       <c r="O8">
-        <v>0.0007740388322526986</v>
+        <v>0.0007740388285747852</v>
       </c>
       <c r="P8">
-        <v>0.0004064415132606861</v>
+        <v>0.0004064415078126303</v>
       </c>
       <c r="Q8">
-        <v>0.0004353568964866489</v>
+        <v>0.000435356890188297</v>
       </c>
       <c r="R8">
-        <v>0.004321421002051686</v>
+        <v>0.004321420989160224</v>
       </c>
       <c r="S8">
-        <v>1.13050867721762E-09</v>
+        <v>1.130508664102505E-09</v>
       </c>
       <c r="T8">
-        <v>8.151527679456734E-07</v>
+        <v>8.151527598563428E-07</v>
       </c>
       <c r="U8">
-        <v>0.02624265141776931</v>
+        <v>0.02624265116855249</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.009244925360773914</v>
+        <v>0.00924492488241983</v>
       </c>
       <c r="B9">
-        <v>2.67109094123418</v>
+        <v>2.671090751312957</v>
       </c>
       <c r="C9">
-        <v>0.5528632923011758</v>
+        <v>0.552863286274624</v>
       </c>
       <c r="D9">
-        <v>0.6978898743303737</v>
+        <v>0.6978898657565694</v>
       </c>
       <c r="E9">
-        <v>28.38506445277611</v>
+        <v>28.3850633802661</v>
       </c>
       <c r="F9">
-        <v>0.683958118159659</v>
+        <v>0.6839580846027858</v>
       </c>
       <c r="G9">
-        <v>0.002701484561831325</v>
+        <v>0.002701484518356882</v>
       </c>
       <c r="H9">
-        <v>0.001849573436112657</v>
+        <v>0.001849573431779992</v>
       </c>
       <c r="I9">
-        <v>0.2576170968812723</v>
+        <v>0.2576170435289863</v>
       </c>
       <c r="J9">
-        <v>8.056914441238414</v>
+        <v>8.056914288931496</v>
       </c>
       <c r="K9">
-        <v>0.7222524695346374</v>
+        <v>0.7222524639075482</v>
       </c>
       <c r="L9">
-        <v>0.5164372395747365</v>
+        <v>0.5164372341655039</v>
       </c>
       <c r="M9">
-        <v>0.04237844123327451</v>
+        <v>0.0423784356097729</v>
       </c>
       <c r="N9">
-        <v>3.232912121316391E-06</v>
+        <v>3.232912068394241E-06</v>
       </c>
       <c r="O9">
-        <v>0.003220263358614116</v>
+        <v>0.003220263046475626</v>
       </c>
       <c r="P9">
-        <v>0.005711521203257665</v>
+        <v>0.005711520644653908</v>
       </c>
       <c r="Q9">
-        <v>0.005856923664691469</v>
+        <v>0.005856923090458154</v>
       </c>
       <c r="R9">
-        <v>0.04998574519529823</v>
+        <v>0.04998574453302063</v>
       </c>
       <c r="S9">
-        <v>1.736799212726658E-08</v>
+        <v>1.736799132545478E-08</v>
       </c>
       <c r="T9">
-        <v>7.3182521418388E-06</v>
+        <v>7.318251555456926E-06</v>
       </c>
       <c r="U9">
-        <v>0.1417827189577623</v>
+        <v>0.1417827084699182</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>-0.0002346486552106994</v>
+        <v>-0.0002346486552213354</v>
       </c>
       <c r="B10">
-        <v>-2.074882821804413</v>
+        <v>-2.074882821183303</v>
       </c>
       <c r="C10">
-        <v>-0.1045762492885228</v>
+        <v>-0.1045762494096057</v>
       </c>
       <c r="D10">
-        <v>-0.1490497068757772</v>
+        <v>-0.1490497070274853</v>
       </c>
       <c r="E10">
-        <v>-4.958433850301931</v>
+        <v>-4.958433859266478</v>
       </c>
       <c r="F10">
-        <v>-0.01455695095459055</v>
+        <v>-0.0145569508317323</v>
       </c>
       <c r="G10">
-        <v>-3.075209893582647E-05</v>
+        <v>-3.075209898189128E-05</v>
       </c>
       <c r="H10">
-        <v>-8.237781472363053E-06</v>
+        <v>-8.237781465508732E-06</v>
       </c>
       <c r="I10">
-        <v>-0.02039042841081136</v>
+        <v>-0.02039042832349579</v>
       </c>
       <c r="J10">
-        <v>-1.427710900764203</v>
+        <v>-1.427710902207139</v>
       </c>
       <c r="K10">
-        <v>-0.00196493238275973</v>
+        <v>-0.001964932381620666</v>
       </c>
       <c r="L10">
-        <v>-0.0006910683841487154</v>
+        <v>-0.0006910684273663232</v>
       </c>
       <c r="M10">
-        <v>-0.00201998271480161</v>
+        <v>-0.002019982710101942</v>
       </c>
       <c r="N10">
-        <v>-3.059506885877089E-07</v>
+        <v>-3.05950688449429E-07</v>
       </c>
       <c r="O10">
-        <v>-8.890990286258135E-05</v>
+        <v>-8.890990246193893E-05</v>
       </c>
       <c r="P10">
-        <v>-0.0004181432934505017</v>
+        <v>-0.0004181432917918367</v>
       </c>
       <c r="Q10">
-        <v>-0.0004250787003148741</v>
+        <v>-0.0004250786985105985</v>
       </c>
       <c r="R10">
-        <v>-0.001748542733605661</v>
+        <v>-0.001748542732370416</v>
       </c>
       <c r="S10">
-        <v>-6.085979775039337E-09</v>
+        <v>-6.085979773685806E-09</v>
       </c>
       <c r="T10">
-        <v>-2.379189836129373E-06</v>
+        <v>-2.379189835335469E-06</v>
       </c>
       <c r="U10">
-        <v>-0.005778467639048229</v>
+        <v>-0.005778467597591359</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>-0.0002799526790505459</v>
+        <v>-0.0002799526774036227</v>
       </c>
       <c r="B11">
-        <v>-2.215203694121889</v>
+        <v>-2.215203692982441</v>
       </c>
       <c r="C11">
-        <v>-0.1872578841614253</v>
+        <v>-0.1872578842687892</v>
       </c>
       <c r="D11">
-        <v>-0.2572834856308972</v>
+        <v>-0.2572834857624184</v>
       </c>
       <c r="E11">
-        <v>-5.055154407890392</v>
+        <v>-5.055154413917953</v>
       </c>
       <c r="F11">
-        <v>-0.01622764104151615</v>
+        <v>-0.01622764084296666</v>
       </c>
       <c r="G11">
-        <v>-3.8335467296365E-05</v>
+        <v>-3.833546722064371E-05</v>
       </c>
       <c r="H11">
-        <v>-1.133826108951896E-05</v>
+        <v>-1.133826107021567E-05</v>
       </c>
       <c r="I11">
-        <v>-0.02678823367867936</v>
+        <v>-0.0267882334127809</v>
       </c>
       <c r="J11">
-        <v>-3.006100536449785</v>
+        <v>-3.006100537449313</v>
       </c>
       <c r="K11">
-        <v>-0.002201222440927854</v>
+        <v>-0.00220122241671769</v>
       </c>
       <c r="L11">
-        <v>-0.0009479578038903962</v>
+        <v>-0.000947957824861908</v>
       </c>
       <c r="M11">
-        <v>-0.002267177353804193</v>
+        <v>-0.002267177329513591</v>
       </c>
       <c r="N11">
-        <v>-4.513293841909089E-07</v>
+        <v>-4.513293838790766E-07</v>
       </c>
       <c r="O11">
-        <v>-0.0001058008528566742</v>
+        <v>-0.0001058008514176708</v>
       </c>
       <c r="P11">
-        <v>-0.0005042688054067065</v>
+        <v>-0.0005042688019764609</v>
       </c>
       <c r="Q11">
-        <v>-0.0005122174741013059</v>
+        <v>-0.0005122174705610449</v>
       </c>
       <c r="R11">
-        <v>-0.002209771991700809</v>
+        <v>-0.00220977198857592</v>
       </c>
       <c r="S11">
-        <v>-6.576798769117661E-09</v>
+        <v>-6.576798765413114E-09</v>
       </c>
       <c r="T11">
-        <v>-2.902551232445792E-06</v>
+        <v>-2.902551229818007E-06</v>
       </c>
       <c r="U11">
-        <v>-0.00641565805972798</v>
+        <v>-0.006415657999513765</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>0.0005067526031520283</v>
+        <v>0.0005067528818424452</v>
       </c>
       <c r="B12">
-        <v>0.2090724706884836</v>
+        <v>0.209072573898802</v>
       </c>
       <c r="C12">
-        <v>0.01296366830762531</v>
+        <v>0.01296367193037856</v>
       </c>
       <c r="D12">
-        <v>0.01690434866104697</v>
+        <v>0.01690435366808632</v>
       </c>
       <c r="E12">
-        <v>0.5827241914471809</v>
+        <v>0.5827246774751531</v>
       </c>
       <c r="F12">
-        <v>0.05504800940195645</v>
+        <v>0.05504802857755486</v>
       </c>
       <c r="G12">
-        <v>0.0001737504426518152</v>
+        <v>0.0001737504643267408</v>
       </c>
       <c r="H12">
-        <v>1.504736185390086E-05</v>
+        <v>1.504736450254454E-05</v>
       </c>
       <c r="I12">
-        <v>0.01732091391045935</v>
+        <v>0.01732094292133642</v>
       </c>
       <c r="J12">
-        <v>0.3091296865765504</v>
+        <v>0.3091297577797464</v>
       </c>
       <c r="K12">
-        <v>0.06332675888059568</v>
+        <v>0.06332676150361864</v>
       </c>
       <c r="L12">
-        <v>0.04609385903847021</v>
+        <v>0.04609386218528129</v>
       </c>
       <c r="M12">
-        <v>0.001418516711202861</v>
+        <v>0.001418520006228612</v>
       </c>
       <c r="N12">
-        <v>2.385586208297715E-07</v>
+        <v>2.385586513464234E-07</v>
       </c>
       <c r="O12">
-        <v>0.0001724649998550197</v>
+        <v>0.0001724651720153106</v>
       </c>
       <c r="P12">
-        <v>0.0004212606495542706</v>
+        <v>0.0004212609818994798</v>
       </c>
       <c r="Q12">
-        <v>0.0004307688803806846</v>
+        <v>0.0004307692228883385</v>
       </c>
       <c r="R12">
-        <v>0.003780096969557395</v>
+        <v>0.003780097351749962</v>
       </c>
       <c r="S12">
-        <v>1.291043529270773E-09</v>
+        <v>1.291043972602771E-09</v>
       </c>
       <c r="T12">
-        <v>4.398193128580457E-07</v>
+        <v>4.398196306034786E-07</v>
       </c>
       <c r="U12">
-        <v>0.01027810046310405</v>
+        <v>0.01027810655517138</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.01200668301749289</v>
+        <v>0.01200668553132023</v>
       </c>
       <c r="B13">
-        <v>3.587522072826172</v>
+        <v>3.58752309529224</v>
       </c>
       <c r="C13">
-        <v>0.7517799073850943</v>
+        <v>0.7517799220711869</v>
       </c>
       <c r="D13">
-        <v>0.9481718441264334</v>
+        <v>0.9481718665073531</v>
       </c>
       <c r="E13">
-        <v>38.26011731809174</v>
+        <v>38.26012008202611</v>
       </c>
       <c r="F13">
-        <v>0.9240499451405749</v>
+        <v>0.9240501286924312</v>
       </c>
       <c r="G13">
-        <v>0.003421065141599414</v>
+        <v>0.003421065318340506</v>
       </c>
       <c r="H13">
-        <v>0.001526492543796361</v>
+        <v>0.001526492568274227</v>
       </c>
       <c r="I13">
-        <v>0.3391493534652054</v>
+        <v>0.3391496226229047</v>
       </c>
       <c r="J13">
-        <v>10.44930731886877</v>
+        <v>10.44930770004456</v>
       </c>
       <c r="K13">
-        <v>0.9969391855257984</v>
+        <v>0.9969392073185513</v>
       </c>
       <c r="L13">
-        <v>0.7087070206320615</v>
+        <v>0.7087070257552046</v>
       </c>
       <c r="M13">
-        <v>0.04612451526866012</v>
+        <v>0.04612454332249316</v>
       </c>
       <c r="N13">
-        <v>4.133021217902621E-06</v>
+        <v>4.133021516142788E-06</v>
       </c>
       <c r="O13">
-        <v>0.004170292016306696</v>
+        <v>0.004170293636468356</v>
       </c>
       <c r="P13">
-        <v>0.007611849751414674</v>
+        <v>0.007611853045962284</v>
       </c>
       <c r="Q13">
-        <v>0.007803643476248098</v>
+        <v>0.007803646862465623</v>
       </c>
       <c r="R13">
-        <v>0.06400323845821669</v>
+        <v>0.06400324190898295</v>
       </c>
       <c r="S13">
-        <v>2.32340355181558E-08</v>
+        <v>2.323403955922442E-08</v>
       </c>
       <c r="T13">
-        <v>9.617353898107757E-06</v>
+        <v>9.617356857034861E-06</v>
       </c>
       <c r="U13">
-        <v>0.1875385482492851</v>
+        <v>0.1875386057063714</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>0.0001096664222668598</v>
+        <v>0.0001192919049156439</v>
       </c>
       <c r="B14">
-        <v>0.03209304344960596</v>
+        <v>0.0348933450958273</v>
       </c>
       <c r="C14">
-        <v>0.001207943190238478</v>
+        <v>0.001836186224280575</v>
       </c>
       <c r="D14">
-        <v>0.001609860636076205</v>
+        <v>0.002402174712794863</v>
       </c>
       <c r="E14">
-        <v>0.1450462822706602</v>
+        <v>0.1782431014560472</v>
       </c>
       <c r="F14">
-        <v>0.009274716968022035</v>
+        <v>0.009993757020784486</v>
       </c>
       <c r="G14">
-        <v>8.345266224599468E-06</v>
+        <v>1.081380901915906E-05</v>
       </c>
       <c r="H14">
-        <v>9.295392226827809E-07</v>
+        <v>1.174326632605304E-06</v>
       </c>
       <c r="I14">
-        <v>0.001319153632176116</v>
+        <v>0.001592586161962094</v>
       </c>
       <c r="J14">
-        <v>0.03585383226453486</v>
+        <v>0.04410846834854763</v>
       </c>
       <c r="K14">
-        <v>0.0021592934790874</v>
+        <v>0.002933589980904296</v>
       </c>
       <c r="L14">
-        <v>0.02217131542663012</v>
+        <v>0.02273871933072528</v>
       </c>
       <c r="M14">
-        <v>0.0001706944062446505</v>
+        <v>0.000205583713957322</v>
       </c>
       <c r="N14">
-        <v>3.055952455073464E-08</v>
+        <v>3.356010498842789E-08</v>
       </c>
       <c r="O14">
-        <v>4.755008574506582E-05</v>
+        <v>5.088111597639306E-05</v>
       </c>
       <c r="P14">
-        <v>0.0001204881988247662</v>
+        <v>0.0001264466540902574</v>
       </c>
       <c r="Q14">
-        <v>0.0001248146382641143</v>
+        <v>0.0001309210844944697</v>
       </c>
       <c r="R14">
-        <v>0.0001862645144575934</v>
+        <v>0.0002357829762520798</v>
       </c>
       <c r="S14">
-        <v>3.34077164194229E-10</v>
+        <v>3.523299045845453E-10</v>
       </c>
       <c r="T14">
-        <v>7.277999635489924E-08</v>
+        <v>8.038469349827027E-08</v>
       </c>
       <c r="U14">
-        <v>0.002909590926903038</v>
+        <v>0.003052920059963011</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>0.0008694890009789467</v>
+        <v>0.0008694889994236557</v>
       </c>
       <c r="B15">
-        <v>0.01744137870580954</v>
+        <v>0.01744137793233663</v>
       </c>
       <c r="C15">
-        <v>0.007534488141609495</v>
+        <v>0.007534488146906168</v>
       </c>
       <c r="D15">
-        <v>0.01028802442038257</v>
+        <v>0.01028802442383592</v>
       </c>
       <c r="E15">
-        <v>1.908031089657834</v>
+        <v>1.908031088024951</v>
       </c>
       <c r="F15">
-        <v>0.004622564405249475</v>
+        <v>0.004622564273706609</v>
       </c>
       <c r="G15">
-        <v>1.328097438465706E-05</v>
+        <v>1.32809742643471E-05</v>
       </c>
       <c r="H15">
-        <v>2.281517577137207E-06</v>
+        <v>2.281517559964449E-06</v>
       </c>
       <c r="I15">
-        <v>0.01104604511932704</v>
+        <v>0.0110460449285302</v>
       </c>
       <c r="J15">
-        <v>0.129390960546826</v>
+        <v>0.1293909604392985</v>
       </c>
       <c r="K15">
-        <v>0.001982239180938901</v>
+        <v>0.001982239167620606</v>
       </c>
       <c r="L15">
-        <v>0.0005811739193472854</v>
+        <v>0.0005811739206395425</v>
       </c>
       <c r="M15">
-        <v>0.003450867593807416</v>
+        <v>0.003450867573325909</v>
       </c>
       <c r="N15">
-        <v>9.885788092474081E-09</v>
+        <v>9.885787867502099E-09</v>
       </c>
       <c r="O15">
-        <v>0.0002778094730210608</v>
+        <v>0.0002778094718839251</v>
       </c>
       <c r="P15">
-        <v>6.410695268583662E-05</v>
+        <v>6.410695028769174E-05</v>
       </c>
       <c r="Q15">
-        <v>6.661414618403667E-05</v>
+        <v>6.661414373127373E-05</v>
       </c>
       <c r="R15">
-        <v>0.001017723697383506</v>
+        <v>0.001017723695010102</v>
       </c>
       <c r="S15">
-        <v>2.839170232281382E-10</v>
+        <v>2.839170203322277E-10</v>
       </c>
       <c r="T15">
-        <v>2.5910084637179E-07</v>
+        <v>2.59100844273357E-07</v>
       </c>
       <c r="U15">
-        <v>0.001988557805401264</v>
+        <v>0.001988557764459031</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>5.367418638597312E-05</v>
+        <v>5.367420350745607E-05</v>
       </c>
       <c r="B16">
-        <v>0.01623027818696713</v>
+        <v>0.01623028470842695</v>
       </c>
       <c r="C16">
-        <v>0.003484676944079787</v>
+        <v>0.003484677133467028</v>
       </c>
       <c r="D16">
-        <v>0.004390461863977383</v>
+        <v>0.004390462130056122</v>
       </c>
       <c r="E16">
-        <v>0.1764627008724338</v>
+        <v>0.1764627279822105</v>
       </c>
       <c r="F16">
-        <v>0.004169947682753907</v>
+        <v>0.004169948884327652</v>
       </c>
       <c r="G16">
-        <v>1.420379213168067E-05</v>
+        <v>1.420379340384306E-05</v>
       </c>
       <c r="H16">
-        <v>1.42352911120388E-06</v>
+        <v>1.423529272957082E-06</v>
       </c>
       <c r="I16">
-        <v>0.001498455105585213</v>
+        <v>0.001498456903453627</v>
       </c>
       <c r="J16">
-        <v>0.04545673328065242</v>
+        <v>0.04545673720178598</v>
       </c>
       <c r="K16">
-        <v>0.004535809354737391</v>
+        <v>0.004535809503117571</v>
       </c>
       <c r="L16">
-        <v>0.003318171013100557</v>
+        <v>0.003318171191551107</v>
       </c>
       <c r="M16">
-        <v>0.0001855135937336527</v>
+        <v>0.0001855137862147646</v>
       </c>
       <c r="N16">
-        <v>1.752618458583908E-08</v>
+        <v>1.752618648796339E-08</v>
       </c>
       <c r="O16">
-        <v>1.849324470579176E-05</v>
+        <v>1.849325537714182E-05</v>
       </c>
       <c r="P16">
-        <v>3.418726649608354E-05</v>
+        <v>3.418728760765289E-05</v>
       </c>
       <c r="Q16">
-        <v>3.50305548621488E-05</v>
+        <v>3.503057661905493E-05</v>
       </c>
       <c r="R16">
-        <v>0.0002884118717211416</v>
+        <v>0.00028841189473513</v>
       </c>
       <c r="S16">
-        <v>1.051771766883504E-10</v>
+        <v>1.051772042922877E-10</v>
       </c>
       <c r="T16">
-        <v>4.273807694452745E-08</v>
+        <v>4.273809664050741E-08</v>
       </c>
       <c r="U16">
-        <v>0.0008241894490111075</v>
+        <v>0.000824189830257957</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>0.0002618355459967332</v>
+        <v>0.0002618355507729034</v>
       </c>
       <c r="B17">
-        <v>0.1899909391635821</v>
+        <v>0.1899909409380152</v>
       </c>
       <c r="C17">
-        <v>0.004747115010853405</v>
+        <v>0.004747115055996457</v>
       </c>
       <c r="D17">
-        <v>0.008434009613332932</v>
+        <v>0.008434009676877446</v>
       </c>
       <c r="E17">
-        <v>3.664689250928764</v>
+        <v>3.664689257625122</v>
       </c>
       <c r="F17">
-        <v>0.05987564672550421</v>
+        <v>0.05987564707554873</v>
       </c>
       <c r="G17">
-        <v>1.357917301244887E-05</v>
+        <v>1.35791733454999E-05</v>
       </c>
       <c r="H17">
-        <v>5.346281150348069E-06</v>
+        <v>5.346281197201321E-06</v>
       </c>
       <c r="I17">
-        <v>0.009841474359550363</v>
+        <v>0.009841474871133925</v>
       </c>
       <c r="J17">
-        <v>0.1495463850045521</v>
+        <v>0.1495463858367841</v>
       </c>
       <c r="K17">
-        <v>0.003088732836034772</v>
+        <v>0.003088732874852739</v>
       </c>
       <c r="L17">
-        <v>0.007242663432051913</v>
+        <v>0.007242663465317218</v>
       </c>
       <c r="M17">
-        <v>0.00214184457981965</v>
+        <v>0.002141844633411418</v>
       </c>
       <c r="N17">
-        <v>8.67453833189644E-08</v>
+        <v>8.67453838560394E-08</v>
       </c>
       <c r="O17">
-        <v>0.0001367145674232897</v>
+        <v>0.0001367145704258371</v>
       </c>
       <c r="P17">
-        <v>0.0003025580308902407</v>
+        <v>0.0003025580370153547</v>
       </c>
       <c r="Q17">
-        <v>0.0003422863262261812</v>
+        <v>0.0003422863325083439</v>
       </c>
       <c r="R17">
-        <v>0.000309291701526417</v>
+        <v>0.0003092917076378539</v>
       </c>
       <c r="S17">
-        <v>7.511048632374729E-10</v>
+        <v>7.51104870662415E-10</v>
       </c>
       <c r="T17">
-        <v>3.300480808625146E-07</v>
+        <v>3.300480863046985E-07</v>
       </c>
       <c r="U17">
-        <v>0.02586315092697666</v>
+        <v>0.02586315104248185</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>-0.001960372390406197</v>
+        <v>-0.001960372394113986</v>
       </c>
       <c r="B18">
-        <v>-0.4456404779462757</v>
+        <v>-0.4456404813158398</v>
       </c>
       <c r="C18">
-        <v>-0.0453718288190384</v>
+        <v>-0.04537182859869935</v>
       </c>
       <c r="D18">
-        <v>-0.06015808263180036</v>
+        <v>-0.06015808235974249</v>
       </c>
       <c r="E18">
-        <v>-1.512129533706899</v>
+        <v>-1.512129518941395</v>
       </c>
       <c r="F18">
-        <v>-0.1105926365308996</v>
+        <v>-0.1105926371496136</v>
       </c>
       <c r="G18">
-        <v>-0.0003596275579005769</v>
+        <v>-0.0003596275580626822</v>
       </c>
       <c r="H18">
-        <v>-0.002855970012331188</v>
+        <v>-0.002855970012396116</v>
       </c>
       <c r="I18">
-        <v>-0.02563738659848272</v>
+        <v>-0.02563738713531942</v>
       </c>
       <c r="J18">
-        <v>-1.171873373814488</v>
+        <v>-1.171873371464291</v>
       </c>
       <c r="K18">
-        <v>-0.04337626357139642</v>
+        <v>-0.04337626360714891</v>
       </c>
       <c r="L18">
-        <v>-0.01734705325910738</v>
+        <v>-0.0173470532544253</v>
       </c>
       <c r="M18">
-        <v>-0.00430023118902101</v>
+        <v>-0.004300231223907195</v>
       </c>
       <c r="N18">
-        <v>-5.11658256371335E-07</v>
+        <v>-5.116582571463754E-07</v>
       </c>
       <c r="O18">
-        <v>-0.001009445022774481</v>
+        <v>-0.001009445025940083</v>
       </c>
       <c r="P18">
-        <v>-0.001151205758951424</v>
+        <v>-0.001151205767966534</v>
       </c>
       <c r="Q18">
-        <v>-0.001187084075080147</v>
+        <v>-0.001187084084748617</v>
       </c>
       <c r="R18">
-        <v>-0.003746186850916674</v>
+        <v>-0.003746186858445483</v>
       </c>
       <c r="S18">
-        <v>-2.271545106902462E-09</v>
+        <v>-2.271545118089733E-09</v>
       </c>
       <c r="T18">
-        <v>-1.410274333650471E-06</v>
+        <v>-1.410274340040291E-06</v>
       </c>
       <c r="U18">
-        <v>-0.02499607174957433</v>
+        <v>-0.0249960719641232</v>
       </c>
     </row>
   </sheetData>

--- a/results/case2_apos/data_uniquie_case2_apos_recipe.xlsx
+++ b/results/case2_apos/data_uniquie_case2_apos_recipe.xlsx
@@ -14,69 +14,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'climate change', 'global warming potential (GWP1000)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'land use', 'agricultural land occupation (LOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'water use', 'water consumption potential (WCP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: ecosystem quality', 'ecosystem quality')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: human health', 'human health')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'climate change', 'global warming potential (GWP1000)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'land use', 'agricultural land occupation (LOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'water use', 'water consumption potential (WCP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: ecosystem quality', 'ecosystem quality')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: human health', 'human health')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: natural resources', 'natural resources')</t>
+  </si>
+  <si>
+    <t>'H200 SU' (unit, GLO, None)</t>
+  </si>
+  <si>
+    <t>'MUD manufacturing' (unit, GLO, None)</t>
+  </si>
+  <si>
+    <t>'MUD packgaging materials' (kilogram, GLO, None)</t>
+  </si>
+  <si>
+    <t>'MUD raw materials' (unit, GLO, None)</t>
+  </si>
+  <si>
+    <t>'SUD manufacturing' (unit, GLO, None)</t>
+  </si>
+  <si>
+    <t>'SUD packgaging materials' (kilogram, GLO, None)</t>
+  </si>
+  <si>
+    <t>'SUD raw materials' (unit, GLO, None)</t>
+  </si>
+  <si>
+    <t>'autoclave' (unit, DK, None)</t>
+  </si>
+  <si>
+    <t>'eol MUD' (kilogram, GLO, None)</t>
+  </si>
+  <si>
+    <t>'eol SUD' (kilogram, GLO, None)</t>
+  </si>
+  <si>
+    <t>'market for electricity, high voltage' (kilowatt hour, DK, None)</t>
+  </si>
+  <si>
+    <t>'mechanical disinfection' (unit, DK, None)</t>
+  </si>
+  <si>
+    <t>'mixed heating grid' (megajoule, DK, None)</t>
+  </si>
+  <si>
+    <t>'scalpel' (unit, GLO, None)</t>
+  </si>
+  <si>
+    <t>'surgery use' (unit, DK, None)</t>
+  </si>
+  <si>
+    <t>'transport' (ton kilometer, GLO, None)</t>
+  </si>
+  <si>
+    <t>'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)</t>
   </si>
 </sst>
 </file>
@@ -434,1179 +485,1230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2">
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
         <v>0.0003882063314242451</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>0.3431074236578536</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.0122135292985705</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.01757206326379144</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.7481075692323833</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.1197572865702453</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>7.362817344084638E-06</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>4.945899789206099E-06</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.004592829012007496</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.1386412746808753</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>-0.00495209007824626</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>-0.05887632063608469</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.001859627880584929</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>-5.391753265864774E-08</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0.0001797505152649822</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.0002512619563295491</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>0.0002740894226858067</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>0.001097261275225239</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>5.803286993419413E-10</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>4.807853146712306E-07</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>0.0488168717731401</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3">
+    <row r="3" spans="1:22">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
         <v>0.0006838743237552608</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0.1877127277472248</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.04348092831099516</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.05493461945319568</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2.391785339053278</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.04829331504022556</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.0001877230726548113</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>9.921492190242033E-05</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.01838321217589241</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.6174091657785048</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.05135719681543405</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.03664493694325042</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.002847960919481655</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>2.201578546410771E-07</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.0002367535495990968</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.0004059579321840019</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.0004162492680174823</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.003411111204440431</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1.238390968774466E-09</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>5.332314081913749E-07</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.009967865449574197</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
-      <c r="A4">
+    <row r="4" spans="1:22">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
         <v>0.009062374728536974</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>3.205256479722328</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.0839286437804211</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.1123831848076694</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>7.421889390567929</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1.898586541150847</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.0008007065573639173</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.000114468153574355</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.132482475850993</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1.984332488570211</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.2024672173313559</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.09313487572284186</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.02102106087074463</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>5.930314185543798E-07</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.004042494602684855</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.007820235077145422</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.008528613894285008</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.04824888849735461</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1.351638245505422E-08</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>6.522985678852303E-06</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>0.7124084615820803</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
-      <c r="A5">
+    <row r="5" spans="1:22">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
         <v>2.079559274514854E-05</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0.0009947395372164949</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.000957582374855469</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.001492127977962738</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.04272095737751461</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.0002629456027417362</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1.478708838895536E-06</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>8.908299841533906E-08</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.0002723185015901487</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.01792910683827502</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>7.749260368739991E-05</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>5.159391355434921E-05</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.0001535267349925197</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>2.637568105155487E-09</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>6.990252761364081E-06</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>5.360473406424085E-06</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>5.499651938197167E-06</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>2.571622886045624E-05</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1.065957987357341E-11</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1.037001775744364E-08</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>0.0001119366361264842</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
-      <c r="A6">
+    <row r="6" spans="1:22">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
         <v>0.01449345123817255</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>0.7599392831299568</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1.34539063149911</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1.727145787551799</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>102.7754548778297</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.2078211747333292</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.001924726230965406</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>6.042956859167487E-05</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.1684747943589419</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>19.78402507622324</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.1003765710080897</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.0561156117744304</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.06718159511666533</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>4.869017151881734E-07</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>0.005053973963947272</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.003514347484129896</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>0.003606847974303233</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>0.0108567137648576</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>9.739542769673668E-09</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>8.977744436204676E-06</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>0.06571186791850801</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
-      <c r="A7">
+    <row r="7" spans="1:22">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
         <v>0.007223574059338036</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>2.428075209775886</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.07016811778243418</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.09344667692208064</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6.606753151127034</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1.333466908343601</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.0006782904000297307</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.000192716051907486</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.1056187907220539</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1.852968733689327</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.1758859807960015</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.4951721833774738</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.1917812887732795</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>7.518127538182646E-07</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.00328192757545809</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>0.006287098438128158</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>0.00679870159436188</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>0.04489655193436258</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1.418889720686936E-08</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>5.195975181629121E-06</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>0.5372963602203253</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
-      <c r="A8">
+    <row r="8" spans="1:22">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
         <v>0.002301881209050565</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>0.1652473764922311</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.01684144098305416</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.02314080446120313</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>4.338663208958223</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.06836056082183165</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>4.928300120534907E-05</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>9.421560635483897E-06</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.0280774756623421</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.3179891244207774</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.009525745953512153</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.003024483034777371</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.008941787598427014</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>8.265723083101339E-08</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0.0007740388285747852</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>0.0004064415078126303</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>0.000435356890188297</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0.004321420989160224</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>1.130508664102505E-09</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>8.151527598563428E-07</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>0.02624265116855249</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
-      <c r="A9">
+    <row r="9" spans="1:22">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
         <v>0.00924492488241983</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>2.671090751312957</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.552863286274624</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.6978898657565694</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>28.3850633802661</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.6839580846027858</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.002701484518356882</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.001849573431779992</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.2576170435289863</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>8.056914288931496</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0.7222524639075482</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.5164372341655039</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.0423784356097729</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>3.232912068394241E-06</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.003220263046475626</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.005711520644653908</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>0.005856923090458154</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.04998574453302063</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>1.736799132545478E-08</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>7.318251555456926E-06</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>0.1417827084699182</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
-      <c r="A10">
+    <row r="10" spans="1:22">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
         <v>-0.0002346486552213354</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>-2.074882821183303</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.1045762494096057</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-0.1490497070274853</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-4.958433859266478</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.0145569508317323</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-3.075209898189128E-05</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-8.237781465508732E-06</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-0.02039042832349579</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-1.427710902207139</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-0.001964932381620666</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-0.0006910684273663232</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-0.002019982710101942</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>-3.05950688449429E-07</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-8.890990246193893E-05</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-0.0004181432917918367</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-0.0004250786985105985</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-0.001748542732370416</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-6.085979773685806E-09</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>-2.379189835335469E-06</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>-0.005778467597591359</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
-      <c r="A11">
+    <row r="11" spans="1:22">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
         <v>-0.0002799526774036227</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>-2.215203692982441</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-0.1872578842687892</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.2572834857624184</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-5.055154413917953</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-0.01622764084296666</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-3.833546722064371E-05</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-1.133826107021567E-05</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-0.0267882334127809</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-3.006100537449313</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-0.00220122241671769</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-0.000947957824861908</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-0.002267177329513591</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-4.513293838790766E-07</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-0.0001058008514176708</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-0.0005042688019764609</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-0.0005122174705610449</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>-0.00220977198857592</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>-6.576798765413114E-09</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>-2.902551229818007E-06</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-0.006415657999513765</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
-      <c r="A12">
+    <row r="12" spans="1:22">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
         <v>0.0005067528818424452</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>0.209072573898802</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.01296367193037856</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.01690435366808632</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.5827246774751531</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.05504802857755486</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.0001737504643267408</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1.504736450254454E-05</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.01732094292133642</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.3091297577797464</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>0.06332676150361864</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>0.04609386218528129</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.001418520006228612</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>2.385586513464234E-07</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>0.0001724651720153106</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>0.0004212609818994798</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>0.0004307692228883385</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>0.003780097351749962</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>1.291043972602771E-09</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>4.398196306034786E-07</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>0.01027810655517138</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
-      <c r="A13">
+    <row r="13" spans="1:22">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
         <v>0.01200668553132023</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>3.58752309529224</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.7517799220711869</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.9481718665073531</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>38.26012008202611</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.9240501286924312</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.003421065318340506</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.001526492568274227</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.3391496226229047</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>10.44930770004456</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>0.9969392073185513</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.7087070257552046</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.04612454332249316</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>4.133021516142788E-06</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>0.004170293636468356</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>0.007611853045962284</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>0.007803646862465623</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>0.06400324190898295</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>2.323403955922442E-08</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>9.617356857034861E-06</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>0.1875386057063714</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
-      <c r="A14">
+    <row r="14" spans="1:22">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
         <v>0.0001192919049156439</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>0.0348933450958273</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.001836186224280575</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.002402174712794863</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.1782431014560472</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.009993757020784486</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1.081380901915906E-05</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.174326632605304E-06</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.001592586161962094</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.04410846834854763</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0.002933589980904296</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.02273871933072528</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.000205583713957322</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>3.356010498842789E-08</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>5.088111597639306E-05</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>0.0001264466540902574</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>0.0001309210844944697</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>0.0002357829762520798</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>3.523299045845453E-10</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>8.038469349827027E-08</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>0.003052920059963011</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
-      <c r="A15">
+    <row r="15" spans="1:22">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
         <v>0.0008694889994236557</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>0.01744137793233663</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.007534488146906168</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.01028802442383592</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1.908031088024951</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.004622564273706609</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1.32809742643471E-05</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2.281517559964449E-06</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.0110460449285302</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.1293909604392985</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>0.001982239167620606</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.0005811739206395425</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.003450867573325909</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>9.885787867502099E-09</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>0.0002778094718839251</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>6.410695028769174E-05</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>6.661414373127373E-05</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>0.001017723695010102</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>2.839170203322277E-10</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>2.59100844273357E-07</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>0.001988557764459031</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
-      <c r="A16">
+    <row r="16" spans="1:22">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
         <v>5.367420350745607E-05</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>0.01623028470842695</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.003484677133467028</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.004390462130056122</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.1764627279822105</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.004169948884327652</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1.420379340384306E-05</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1.423529272957082E-06</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.001498456903453627</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.04545673720178598</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>0.004535809503117571</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.003318171191551107</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.0001855137862147646</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1.752618648796339E-08</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>1.849325537714182E-05</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>3.418728760765289E-05</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>3.503057661905493E-05</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>0.00028841189473513</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>1.051772042922877E-10</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>4.273809664050741E-08</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>0.000824189830257957</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
-      <c r="A17">
+    <row r="17" spans="1:22">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
         <v>0.0002618355507729034</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>0.1899909409380152</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.004747115055996457</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.008434009676877446</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>3.664689257625122</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.05987564707554873</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1.35791733454999E-05</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>5.346281197201321E-06</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.009841474871133925</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.1495463858367841</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>0.003088732874852739</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>0.007242663465317218</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.002141844633411418</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>8.67453838560394E-08</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>0.0001367145704258371</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>0.0003025580370153547</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>0.0003422863325083439</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>0.0003092917076378539</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>7.51104870662415E-10</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>3.300480863046985E-07</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>0.02586315104248185</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
-      <c r="A18">
+    <row r="18" spans="1:22">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
         <v>-0.001960372394113986</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>-0.4456404813158398</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-0.04537182859869935</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-0.06015808235974249</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-1.512129518941395</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-0.1105926371496136</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-0.0003596275580626822</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-0.002855970012396116</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-0.02563738713531942</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-1.171873371464291</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>-0.04337626360714891</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>-0.0173470532544253</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-0.004300231223907195</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>-5.116582571463754E-07</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>-0.001009445025940083</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-0.001151205767966534</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>-0.001187084084748617</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>-0.003746186858445483</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>-2.271545118089733E-09</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>-1.410274340040291E-06</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-0.0249960719641232</v>
       </c>
     </row>

--- a/results/case2_apos/data_uniquie_case2_apos_recipe.xlsx
+++ b/results/case2_apos/data_uniquie_case2_apos_recipe.xlsx
@@ -561,67 +561,67 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>0.0003882063314242451</v>
+        <v>0.0003882061432632403</v>
       </c>
       <c r="C2">
-        <v>0.3431074236578536</v>
+        <v>0.3431074296103722</v>
       </c>
       <c r="D2">
-        <v>0.0122135292985705</v>
+        <v>0.01221352455146262</v>
       </c>
       <c r="E2">
-        <v>0.01757206326379144</v>
+        <v>0.01757205718348188</v>
       </c>
       <c r="F2">
-        <v>0.7481075692323833</v>
+        <v>0.7481069632718654</v>
       </c>
       <c r="G2">
-        <v>0.1197572865702453</v>
+        <v>0.1197572816367136</v>
       </c>
       <c r="H2">
-        <v>7.362817344084638E-06</v>
+        <v>7.362809664983218E-06</v>
       </c>
       <c r="I2">
-        <v>4.945899789206099E-06</v>
+        <v>4.94589947586025E-06</v>
       </c>
       <c r="J2">
-        <v>0.004592829012007496</v>
+        <v>0.004592820003683704</v>
       </c>
       <c r="K2">
-        <v>0.1386412746808753</v>
+        <v>0.1386411927722287</v>
       </c>
       <c r="L2">
-        <v>-0.00495209007824626</v>
+        <v>-0.004952090731736974</v>
       </c>
       <c r="M2">
-        <v>-0.05887632063608469</v>
+        <v>-0.05887626429321981</v>
       </c>
       <c r="N2">
-        <v>0.001859627880584929</v>
+        <v>0.001859626588826245</v>
       </c>
       <c r="O2">
-        <v>-5.391753265864774E-08</v>
+        <v>-5.391753771596452E-08</v>
       </c>
       <c r="P2">
-        <v>0.0001797505152649822</v>
+        <v>0.0001797504460748854</v>
       </c>
       <c r="Q2">
-        <v>0.0002512619563295491</v>
+        <v>0.0002512618154923126</v>
       </c>
       <c r="R2">
-        <v>0.0002740894226858067</v>
+        <v>0.0002740892750625346</v>
       </c>
       <c r="S2">
-        <v>0.001097261275225239</v>
+        <v>0.001097262040356744</v>
       </c>
       <c r="T2">
-        <v>5.803286993419413E-10</v>
+        <v>5.80329141253455E-10</v>
       </c>
       <c r="U2">
-        <v>4.807853146712306E-07</v>
+        <v>4.807852297137118E-07</v>
       </c>
       <c r="V2">
-        <v>0.0488168717731401</v>
+        <v>0.04881686956769761</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -629,67 +629,67 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <v>0.0006838743237552608</v>
+        <v>0.0006838743673976745</v>
       </c>
       <c r="C3">
-        <v>0.1877127277472248</v>
+        <v>0.1877127444107506</v>
       </c>
       <c r="D3">
-        <v>0.04348092831099516</v>
+        <v>0.04348092871659614</v>
       </c>
       <c r="E3">
-        <v>0.05493461945319568</v>
+        <v>0.05493462003866682</v>
       </c>
       <c r="F3">
-        <v>2.391785339053278</v>
+        <v>2.391785408249417</v>
       </c>
       <c r="G3">
-        <v>0.04829331504022556</v>
+        <v>0.04829331800127699</v>
       </c>
       <c r="H3">
-        <v>0.0001877230726548113</v>
+        <v>0.0001877230759026985</v>
       </c>
       <c r="I3">
-        <v>9.921492190242033E-05</v>
+        <v>9.921492233096775E-05</v>
       </c>
       <c r="J3">
-        <v>0.01838321217589241</v>
+        <v>0.01838321725189591</v>
       </c>
       <c r="K3">
-        <v>0.6174091657785048</v>
+        <v>0.6174091753572594</v>
       </c>
       <c r="L3">
-        <v>0.05135719681543405</v>
+        <v>0.051357197131515</v>
       </c>
       <c r="M3">
-        <v>0.03664493694325042</v>
+        <v>0.03664491752158006</v>
       </c>
       <c r="N3">
-        <v>0.002847960919481655</v>
+        <v>0.002847961446316449</v>
       </c>
       <c r="O3">
-        <v>2.201578546410771E-07</v>
+        <v>2.201578590592355E-07</v>
       </c>
       <c r="P3">
-        <v>0.0002367535495990968</v>
+        <v>0.000236753576941624</v>
       </c>
       <c r="Q3">
-        <v>0.0004059579321840019</v>
+        <v>0.0004059579844702151</v>
       </c>
       <c r="R3">
-        <v>0.0004162492680174823</v>
+        <v>0.0004162493218654789</v>
       </c>
       <c r="S3">
-        <v>0.003411111204440431</v>
+        <v>0.003411111265571114</v>
       </c>
       <c r="T3">
-        <v>1.238390968774466E-09</v>
+        <v>1.23839086254744E-09</v>
       </c>
       <c r="U3">
-        <v>5.332314081913749E-07</v>
+        <v>5.332314600694089E-07</v>
       </c>
       <c r="V3">
-        <v>0.009967865449574197</v>
+        <v>0.00996786639411429</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -697,67 +697,67 @@
         <v>23</v>
       </c>
       <c r="B4">
-        <v>0.009062374728536974</v>
+        <v>0.009062375910100944</v>
       </c>
       <c r="C4">
-        <v>3.205256479722328</v>
+        <v>3.20525690721323</v>
       </c>
       <c r="D4">
-        <v>0.0839286437804211</v>
+        <v>0.08392866129090772</v>
       </c>
       <c r="E4">
-        <v>0.1123831848076694</v>
+        <v>0.1123832088471636</v>
       </c>
       <c r="F4">
-        <v>7.421889390567929</v>
+        <v>7.421891722947111</v>
       </c>
       <c r="G4">
-        <v>1.898586541150847</v>
+        <v>1.898586620299416</v>
       </c>
       <c r="H4">
-        <v>0.0008007065573639173</v>
+        <v>0.0008007066482649437</v>
       </c>
       <c r="I4">
-        <v>0.000114468153574355</v>
+        <v>0.0001144681643551605</v>
       </c>
       <c r="J4">
-        <v>0.132482475850993</v>
+        <v>0.1324825974652672</v>
       </c>
       <c r="K4">
-        <v>1.984332488570211</v>
+        <v>1.984332826496064</v>
       </c>
       <c r="L4">
-        <v>0.2024672173313559</v>
+        <v>0.2024672273202491</v>
       </c>
       <c r="M4">
-        <v>0.09313487572284186</v>
+        <v>0.09313489900332578</v>
       </c>
       <c r="N4">
-        <v>0.02102106087074463</v>
+        <v>0.02102107391662725</v>
       </c>
       <c r="O4">
-        <v>5.930314185543798E-07</v>
+        <v>5.93031542920504E-07</v>
       </c>
       <c r="P4">
-        <v>0.004042494602684855</v>
+        <v>0.004042495327923654</v>
       </c>
       <c r="Q4">
-        <v>0.007820235077145422</v>
+        <v>0.007820236469071758</v>
       </c>
       <c r="R4">
-        <v>0.008528613894285008</v>
+        <v>0.008528615329416549</v>
       </c>
       <c r="S4">
-        <v>0.04824888849735461</v>
+        <v>0.04824889002655743</v>
       </c>
       <c r="T4">
-        <v>1.351638245505422E-08</v>
+        <v>1.351638439664612E-08</v>
       </c>
       <c r="U4">
-        <v>6.522985678852303E-06</v>
+        <v>6.522987017092705E-06</v>
       </c>
       <c r="V4">
-        <v>0.7124084615820803</v>
+        <v>0.7124084868427597</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -765,67 +765,67 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>2.079559274514854E-05</v>
+        <v>5.044343652135735E-06</v>
       </c>
       <c r="C5">
-        <v>0.0009947395372164949</v>
+        <v>0.0009051563588489059</v>
       </c>
       <c r="D5">
-        <v>0.000957582374855469</v>
+        <v>0.0008650231327965365</v>
       </c>
       <c r="E5">
-        <v>0.001492127977962738</v>
+        <v>0.001363932246730207</v>
       </c>
       <c r="F5">
-        <v>0.04272095737751461</v>
+        <v>0.01411658400780716</v>
       </c>
       <c r="G5">
-        <v>0.0002629456027417362</v>
+        <v>0.0002325060984008735</v>
       </c>
       <c r="H5">
-        <v>1.478708838895536E-06</v>
+        <v>1.346265878008904E-06</v>
       </c>
       <c r="I5">
-        <v>8.908299841533906E-08</v>
+        <v>5.916084630368807E-08</v>
       </c>
       <c r="J5">
-        <v>0.0002723185015901487</v>
+        <v>0.0003692023651185738</v>
       </c>
       <c r="K5">
-        <v>0.01792910683827502</v>
+        <v>0.01622152657487586</v>
       </c>
       <c r="L5">
-        <v>7.749260368739991E-05</v>
+        <v>5.461090827967992E-05</v>
       </c>
       <c r="M5">
-        <v>5.159391355434921E-05</v>
+        <v>4.904862389515571E-05</v>
       </c>
       <c r="N5">
-        <v>0.0001535267349925197</v>
+        <v>0.0001078390926812184</v>
       </c>
       <c r="O5">
-        <v>2.637568105155487E-09</v>
+        <v>2.516541988320809E-09</v>
       </c>
       <c r="P5">
-        <v>6.990252761364081E-06</v>
+        <v>2.408276522791094E-06</v>
       </c>
       <c r="Q5">
-        <v>5.360473406424085E-06</v>
+        <v>4.763020625006013E-06</v>
       </c>
       <c r="R5">
-        <v>5.499651938197167E-06</v>
+        <v>4.88288627804957E-06</v>
       </c>
       <c r="S5">
-        <v>2.571622886045624E-05</v>
+        <v>7.773106065791065E-06</v>
       </c>
       <c r="T5">
-        <v>1.065957987357341E-11</v>
+        <v>6.474216383624438E-12</v>
       </c>
       <c r="U5">
-        <v>1.037001775744364E-08</v>
+        <v>7.302800147716167E-09</v>
       </c>
       <c r="V5">
-        <v>0.0001119366361264842</v>
+        <v>9.178140483305139E-05</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -833,67 +833,67 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>0.01449345123817255</v>
+        <v>0.01449345142594517</v>
       </c>
       <c r="C6">
-        <v>0.7599392831299568</v>
+        <v>0.7599393530027657</v>
       </c>
       <c r="D6">
-        <v>1.34539063149911</v>
+        <v>1.345390633703747</v>
       </c>
       <c r="E6">
-        <v>1.727145787551799</v>
+        <v>1.727145790640689</v>
       </c>
       <c r="F6">
-        <v>102.7754548778297</v>
+        <v>102.7754551900828</v>
       </c>
       <c r="G6">
-        <v>0.2078211747333292</v>
+        <v>0.2078211876851618</v>
       </c>
       <c r="H6">
-        <v>0.001924726230965406</v>
+        <v>0.001924726244932596</v>
       </c>
       <c r="I6">
-        <v>6.042956859167487E-05</v>
+        <v>6.042957031280478E-05</v>
       </c>
       <c r="J6">
-        <v>0.1684747943589419</v>
+        <v>0.1684748135387668</v>
       </c>
       <c r="K6">
-        <v>19.78402507622324</v>
+        <v>19.7840251220844</v>
       </c>
       <c r="L6">
-        <v>0.1003765710080897</v>
+        <v>0.1003765725492584</v>
       </c>
       <c r="M6">
-        <v>0.0561156117744304</v>
+        <v>0.05611559785677044</v>
       </c>
       <c r="N6">
-        <v>0.06718159511666533</v>
+        <v>0.06718159717596263</v>
       </c>
       <c r="O6">
-        <v>4.869017151881734E-07</v>
+        <v>4.869017355062117E-07</v>
       </c>
       <c r="P6">
-        <v>0.005053973963947272</v>
+        <v>0.005053974080338791</v>
       </c>
       <c r="Q6">
-        <v>0.003514347484129896</v>
+        <v>0.003514347716251312</v>
       </c>
       <c r="R6">
-        <v>0.003606847974303233</v>
+        <v>0.003606848213761314</v>
       </c>
       <c r="S6">
-        <v>0.0108567137648576</v>
+        <v>0.01085671400986913</v>
       </c>
       <c r="T6">
-        <v>9.739542769673668E-09</v>
+        <v>9.739542927274524E-09</v>
       </c>
       <c r="U6">
-        <v>8.977744436204676E-06</v>
+        <v>8.97774464912905E-06</v>
       </c>
       <c r="V6">
-        <v>0.06571186791850801</v>
+        <v>0.06571187206538003</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -901,67 +901,67 @@
         <v>26</v>
       </c>
       <c r="B7">
-        <v>0.007223574059338036</v>
+        <v>0.007223573436224715</v>
       </c>
       <c r="C7">
-        <v>2.428075209775886</v>
+        <v>2.428074957963962</v>
       </c>
       <c r="D7">
-        <v>0.07016811778243418</v>
+        <v>0.07016811160520679</v>
       </c>
       <c r="E7">
-        <v>0.09344667692208064</v>
+        <v>0.0934466681061018</v>
       </c>
       <c r="F7">
-        <v>6.606753151127034</v>
+        <v>6.606752179129257</v>
       </c>
       <c r="G7">
-        <v>1.333466908343601</v>
+        <v>1.333466862787</v>
       </c>
       <c r="H7">
-        <v>0.0006782904000297307</v>
+        <v>0.0006782903515542661</v>
       </c>
       <c r="I7">
-        <v>0.000192716051907486</v>
+        <v>0.0001927160458809473</v>
       </c>
       <c r="J7">
-        <v>0.1056187907220539</v>
+        <v>0.1056187233389216</v>
       </c>
       <c r="K7">
-        <v>1.852968733689327</v>
+        <v>1.852968595083777</v>
       </c>
       <c r="L7">
-        <v>0.1758859807960015</v>
+        <v>0.1758859747155173</v>
       </c>
       <c r="M7">
-        <v>0.4951721833774738</v>
+        <v>0.4951721967744739</v>
       </c>
       <c r="N7">
-        <v>0.1917812887732795</v>
+        <v>0.1917812816347556</v>
       </c>
       <c r="O7">
-        <v>7.518127538182646E-07</v>
+        <v>7.518126816695095E-07</v>
       </c>
       <c r="P7">
-        <v>0.00328192757545809</v>
+        <v>0.003281927175204603</v>
       </c>
       <c r="Q7">
-        <v>0.006287098438128158</v>
+        <v>0.00628709765070788</v>
       </c>
       <c r="R7">
-        <v>0.00679870159436188</v>
+        <v>0.006798700782657819</v>
       </c>
       <c r="S7">
-        <v>0.04489655193436258</v>
+        <v>0.0448965510690959</v>
       </c>
       <c r="T7">
-        <v>1.418889720686936E-08</v>
+        <v>1.418889633503129E-08</v>
       </c>
       <c r="U7">
-        <v>5.195975181629121E-06</v>
+        <v>5.195974438285968E-06</v>
       </c>
       <c r="V7">
-        <v>0.5372963602203253</v>
+        <v>0.5372963458716234</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -969,67 +969,67 @@
         <v>27</v>
       </c>
       <c r="B8">
-        <v>0.002301881209050565</v>
+        <v>0.002301881235981028</v>
       </c>
       <c r="C8">
-        <v>0.1652473764922311</v>
+        <v>0.1652473867310799</v>
       </c>
       <c r="D8">
-        <v>0.01684144098305416</v>
+        <v>0.01684144142937924</v>
       </c>
       <c r="E8">
-        <v>0.02314080446120313</v>
+        <v>0.02314080506836665</v>
       </c>
       <c r="F8">
-        <v>4.338663208958223</v>
+        <v>4.338663262557993</v>
       </c>
       <c r="G8">
-        <v>0.06836056082183165</v>
+        <v>0.06836056276498698</v>
       </c>
       <c r="H8">
-        <v>4.928300120534907E-05</v>
+        <v>4.928300344234503E-05</v>
       </c>
       <c r="I8">
-        <v>9.421560635483897E-06</v>
+        <v>9.421560890589398E-06</v>
       </c>
       <c r="J8">
-        <v>0.0280774756623421</v>
+        <v>0.02807747846339157</v>
       </c>
       <c r="K8">
-        <v>0.3179891244207774</v>
+        <v>0.3179891326491391</v>
       </c>
       <c r="L8">
-        <v>0.009525745953512153</v>
+        <v>0.009525746235272281</v>
       </c>
       <c r="M8">
-        <v>0.003024483034777371</v>
+        <v>0.003024487453584184</v>
       </c>
       <c r="N8">
-        <v>0.008941787598427014</v>
+        <v>0.008941787915365868</v>
       </c>
       <c r="O8">
-        <v>8.265723083101339E-08</v>
+        <v>8.26572336816715E-08</v>
       </c>
       <c r="P8">
-        <v>0.0007740388285747852</v>
+        <v>0.0007740388451165705</v>
       </c>
       <c r="Q8">
-        <v>0.0004064415078126303</v>
+        <v>0.0004064415385391274</v>
       </c>
       <c r="R8">
-        <v>0.000435356890188297</v>
+        <v>0.0004353569221436966</v>
       </c>
       <c r="S8">
-        <v>0.004321420989160224</v>
+        <v>0.004321421027783139</v>
       </c>
       <c r="T8">
-        <v>1.130508664102505E-09</v>
+        <v>1.130508744314818E-09</v>
       </c>
       <c r="U8">
-        <v>8.151527598563428E-07</v>
+        <v>8.151527910497161E-07</v>
       </c>
       <c r="V8">
-        <v>0.02624265116855249</v>
+        <v>0.02624265179334911</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1037,67 +1037,67 @@
         <v>28</v>
       </c>
       <c r="B9">
-        <v>0.00924492488241983</v>
+        <v>0.009244926128678482</v>
       </c>
       <c r="C9">
-        <v>2.671090751312957</v>
+        <v>2.671091267100837</v>
       </c>
       <c r="D9">
-        <v>0.552863286274624</v>
+        <v>0.552863291828952</v>
       </c>
       <c r="E9">
-        <v>0.6978898657565694</v>
+        <v>0.6978898748645134</v>
       </c>
       <c r="F9">
-        <v>28.3850633802661</v>
+        <v>28.38506482925786</v>
       </c>
       <c r="G9">
-        <v>0.6839580846027858</v>
+        <v>0.683958177520571</v>
       </c>
       <c r="H9">
-        <v>0.002701484518356882</v>
+        <v>0.002701484610584714</v>
       </c>
       <c r="I9">
-        <v>0.001849573431779992</v>
+        <v>0.001849573444081318</v>
       </c>
       <c r="J9">
-        <v>0.2576170435289863</v>
+        <v>0.2576171814277451</v>
       </c>
       <c r="K9">
-        <v>8.056914288931496</v>
+        <v>8.056914491516681</v>
       </c>
       <c r="L9">
-        <v>0.7222524639075482</v>
+        <v>0.722252475048522</v>
       </c>
       <c r="M9">
-        <v>0.5164372341655039</v>
+        <v>0.5164366754536343</v>
       </c>
       <c r="N9">
-        <v>0.0423784356097729</v>
+        <v>0.04237844952774189</v>
       </c>
       <c r="O9">
-        <v>3.232912068394241E-06</v>
+        <v>3.232912214813648E-06</v>
       </c>
       <c r="P9">
-        <v>0.003220263046475626</v>
+        <v>0.003220263855506354</v>
       </c>
       <c r="Q9">
-        <v>0.005711520644653908</v>
+        <v>0.005711522265516546</v>
       </c>
       <c r="R9">
-        <v>0.005856923090458154</v>
+        <v>0.005856924758574697</v>
       </c>
       <c r="S9">
-        <v>0.04998574453302063</v>
+        <v>0.04998574628159305</v>
       </c>
       <c r="T9">
-        <v>1.736799132545478E-08</v>
+        <v>1.736798837288087E-08</v>
       </c>
       <c r="U9">
-        <v>7.318251555456926E-06</v>
+        <v>7.318253052277472E-06</v>
       </c>
       <c r="V9">
-        <v>0.1417827084699182</v>
+        <v>0.1417827377370888</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1105,67 +1105,67 @@
         <v>29</v>
       </c>
       <c r="B10">
-        <v>-0.0002346486552213354</v>
+        <v>-0.0002346486480340136</v>
       </c>
       <c r="C10">
-        <v>-2.074882821183303</v>
+        <v>-2.074882818243736</v>
       </c>
       <c r="D10">
-        <v>-0.1045762494096057</v>
+        <v>-0.1045762492084647</v>
       </c>
       <c r="E10">
-        <v>-0.1490497070274853</v>
+        <v>-0.1490497067659998</v>
       </c>
       <c r="F10">
-        <v>-4.958433859266478</v>
+        <v>-4.958433844065592</v>
       </c>
       <c r="G10">
-        <v>-0.0145569508317323</v>
+        <v>-0.0145569503135891</v>
       </c>
       <c r="H10">
-        <v>-3.075209898189128E-05</v>
+        <v>-3.075209833197794E-05</v>
       </c>
       <c r="I10">
-        <v>-8.237781465508732E-06</v>
+        <v>-8.237781398708741E-06</v>
       </c>
       <c r="J10">
-        <v>-0.02039042832349579</v>
+        <v>-0.02039042714809788</v>
       </c>
       <c r="K10">
-        <v>-1.427710902207139</v>
+        <v>-1.427710900317737</v>
       </c>
       <c r="L10">
-        <v>-0.001964932381620666</v>
+        <v>-0.001964932304392894</v>
       </c>
       <c r="M10">
-        <v>-0.0006910684273663232</v>
+        <v>-0.0006910584325243972</v>
       </c>
       <c r="N10">
-        <v>-0.002019982710101942</v>
+        <v>-0.002019982586884421</v>
       </c>
       <c r="O10">
-        <v>-3.05950688449429E-07</v>
+        <v>-3.059506876130691E-07</v>
       </c>
       <c r="P10">
-        <v>-8.890990246193893E-05</v>
+        <v>-8.890989742010821E-05</v>
       </c>
       <c r="Q10">
-        <v>-0.0004181432917918367</v>
+        <v>-0.0004181432823475877</v>
       </c>
       <c r="R10">
-        <v>-0.0004250786985105985</v>
+        <v>-0.0004250786888809581</v>
       </c>
       <c r="S10">
-        <v>-0.001748542732370416</v>
+        <v>-0.001748542722046216</v>
       </c>
       <c r="T10">
-        <v>-6.085979773685806E-09</v>
+        <v>-6.085979673190961E-09</v>
       </c>
       <c r="U10">
-        <v>-2.379189835335469E-06</v>
+        <v>-2.379189825072191E-06</v>
       </c>
       <c r="V10">
-        <v>-0.005778467597591359</v>
+        <v>-0.005778467437566957</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1173,67 +1173,67 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>-0.0002799526774036227</v>
+        <v>-0.0002799526994267059</v>
       </c>
       <c r="C11">
-        <v>-2.215203692982441</v>
+        <v>-2.215203694198065</v>
       </c>
       <c r="D11">
-        <v>-0.1872578842687892</v>
+        <v>-0.1872578856089861</v>
       </c>
       <c r="E11">
-        <v>-0.2572834857624184</v>
+        <v>-0.2572834874978936</v>
       </c>
       <c r="F11">
-        <v>-5.055154413917953</v>
+        <v>-5.055154533246588</v>
       </c>
       <c r="G11">
-        <v>-0.01622764084296666</v>
+        <v>-0.01622764139558236</v>
       </c>
       <c r="H11">
-        <v>-3.833546722064371E-05</v>
+        <v>-3.833546962309256E-05</v>
       </c>
       <c r="I11">
-        <v>-1.133826107021567E-05</v>
+        <v>-1.133826119503452E-05</v>
       </c>
       <c r="J11">
-        <v>-0.0267882334127809</v>
+        <v>-0.02678823375523448</v>
       </c>
       <c r="K11">
-        <v>-3.006100537449313</v>
+        <v>-3.006100559323765</v>
       </c>
       <c r="L11">
-        <v>-0.00220122241671769</v>
+        <v>-0.002201222823382179</v>
       </c>
       <c r="M11">
-        <v>-0.000947957824861908</v>
+        <v>-0.0009479736980858458</v>
       </c>
       <c r="N11">
-        <v>-0.002267177329513591</v>
+        <v>-0.002267177406521093</v>
       </c>
       <c r="O11">
-        <v>-4.513293838790766E-07</v>
+        <v>-4.513293848465136E-07</v>
       </c>
       <c r="P11">
-        <v>-0.0001058008514176708</v>
+        <v>-0.0001058008594234797</v>
       </c>
       <c r="Q11">
-        <v>-0.0005042688019764609</v>
+        <v>-0.0005042688126274363</v>
       </c>
       <c r="R11">
-        <v>-0.0005122174705610449</v>
+        <v>-0.0005122174816138175</v>
       </c>
       <c r="S11">
-        <v>-0.00220977198857592</v>
+        <v>-0.002209772007251596</v>
       </c>
       <c r="T11">
-        <v>-6.576798765413114E-09</v>
+        <v>-6.5767989198937E-09</v>
       </c>
       <c r="U11">
-        <v>-2.902551229818007E-06</v>
+        <v>-2.902551242154361E-06</v>
       </c>
       <c r="V11">
-        <v>-0.006415657999513765</v>
+        <v>-0.006415658186207789</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1241,67 +1241,67 @@
         <v>31</v>
       </c>
       <c r="B12">
-        <v>0.0005067528818424452</v>
+        <v>0.0005067526978720957</v>
       </c>
       <c r="C12">
-        <v>0.209072573898802</v>
+        <v>0.2090725072923671</v>
       </c>
       <c r="D12">
-        <v>0.01296367193037856</v>
+        <v>0.01296366906968619</v>
       </c>
       <c r="E12">
-        <v>0.01690435366808632</v>
+        <v>0.01690434976172797</v>
       </c>
       <c r="F12">
-        <v>0.5827246774751531</v>
+        <v>0.582724306496141</v>
       </c>
       <c r="G12">
-        <v>0.05504802857755486</v>
+        <v>0.05504801610074508</v>
       </c>
       <c r="H12">
-        <v>0.0001737504643267408</v>
+        <v>0.0001737504491543922</v>
       </c>
       <c r="I12">
-        <v>1.504736450254454E-05</v>
+        <v>1.50473627652484E-05</v>
       </c>
       <c r="J12">
-        <v>0.01732094292133642</v>
+        <v>0.01732092304142756</v>
       </c>
       <c r="K12">
-        <v>0.3091297577797464</v>
+        <v>0.3091297046311537</v>
       </c>
       <c r="L12">
-        <v>0.06332676150361864</v>
+        <v>0.06332675956466724</v>
       </c>
       <c r="M12">
-        <v>0.04609386218528129</v>
+        <v>0.04609382974807467</v>
       </c>
       <c r="N12">
-        <v>0.001418520006228612</v>
+        <v>0.001418517710108941</v>
       </c>
       <c r="O12">
-        <v>2.385586513464234E-07</v>
+        <v>2.385586316990715E-07</v>
       </c>
       <c r="P12">
-        <v>0.0001724651720153106</v>
+        <v>0.0001724650583015275</v>
       </c>
       <c r="Q12">
-        <v>0.0004212609818994798</v>
+        <v>0.0004212607711908936</v>
       </c>
       <c r="R12">
-        <v>0.0004307692228883385</v>
+        <v>0.0004307690057157199</v>
       </c>
       <c r="S12">
-        <v>0.003780097351749962</v>
+        <v>0.003780097094092444</v>
       </c>
       <c r="T12">
-        <v>1.291043972602771E-09</v>
+        <v>1.291043414335105E-09</v>
       </c>
       <c r="U12">
-        <v>4.398196306034786E-07</v>
+        <v>4.398194184001421E-07</v>
       </c>
       <c r="V12">
-        <v>0.01027810655517138</v>
+        <v>0.01027810261387455</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1309,67 +1309,67 @@
         <v>32</v>
       </c>
       <c r="B13">
-        <v>0.01200668553132023</v>
+        <v>0.01200668550978136</v>
       </c>
       <c r="C13">
-        <v>3.58752309529224</v>
+        <v>3.587523049388468</v>
       </c>
       <c r="D13">
-        <v>0.7517799220711869</v>
+        <v>0.7517799267675352</v>
       </c>
       <c r="E13">
-        <v>0.9481718665073531</v>
+        <v>0.9481718725052888</v>
       </c>
       <c r="F13">
-        <v>38.26012008202611</v>
+        <v>38.26012060237315</v>
       </c>
       <c r="G13">
-        <v>0.9240501286924312</v>
+        <v>0.9240501209449155</v>
       </c>
       <c r="H13">
-        <v>0.003421065318340506</v>
+        <v>0.003421065318998497</v>
       </c>
       <c r="I13">
-        <v>0.001526492568274227</v>
+        <v>0.001526492568174639</v>
       </c>
       <c r="J13">
-        <v>0.3391496226229047</v>
+        <v>0.3391496256953604</v>
       </c>
       <c r="K13">
-        <v>10.44930770004456</v>
+        <v>10.44930777901688</v>
       </c>
       <c r="L13">
-        <v>0.9969392073185513</v>
+        <v>0.9969392050381107</v>
       </c>
       <c r="M13">
-        <v>0.7087070257552046</v>
+        <v>0.7087064093940834</v>
       </c>
       <c r="N13">
-        <v>0.04612454332249316</v>
+        <v>0.04612454322541099</v>
       </c>
       <c r="O13">
-        <v>4.133021516142788E-06</v>
+        <v>4.133021497960728E-06</v>
       </c>
       <c r="P13">
-        <v>0.004170293636468356</v>
+        <v>0.004170293597395794</v>
       </c>
       <c r="Q13">
-        <v>0.007611853045962284</v>
+        <v>0.007611852896461761</v>
       </c>
       <c r="R13">
-        <v>0.007803646862465623</v>
+        <v>0.007803646708751086</v>
       </c>
       <c r="S13">
-        <v>0.06400324190898295</v>
+        <v>0.06400324181799626</v>
       </c>
       <c r="T13">
-        <v>2.323403955922442E-08</v>
+        <v>2.323403394525816E-08</v>
       </c>
       <c r="U13">
-        <v>9.617356857034861E-06</v>
+        <v>9.617356817699842E-06</v>
       </c>
       <c r="V13">
-        <v>0.1875386057063714</v>
+        <v>0.1875386034542326</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1377,67 +1377,67 @@
         <v>33</v>
       </c>
       <c r="B14">
-        <v>0.0001192919049156439</v>
+        <v>0.0001192919990006485</v>
       </c>
       <c r="C14">
-        <v>0.0348933450958273</v>
+        <v>0.0348933608241429</v>
       </c>
       <c r="D14">
-        <v>0.001836186224280575</v>
+        <v>0.001836190076735728</v>
       </c>
       <c r="E14">
-        <v>0.002402174712794863</v>
+        <v>0.002402179661651906</v>
       </c>
       <c r="F14">
-        <v>0.1782431014560472</v>
+        <v>0.1782433334047312</v>
       </c>
       <c r="G14">
-        <v>0.009993757020784486</v>
+        <v>0.00999376071140063</v>
       </c>
       <c r="H14">
-        <v>1.081380901915906E-05</v>
+        <v>1.08138192349202E-05</v>
       </c>
       <c r="I14">
-        <v>1.174326632605304E-06</v>
+        <v>1.174327197260418E-06</v>
       </c>
       <c r="J14">
-        <v>0.001592586161962094</v>
+        <v>0.001592592397289803</v>
       </c>
       <c r="K14">
-        <v>0.04410846834854763</v>
+        <v>0.04410852750865101</v>
       </c>
       <c r="L14">
-        <v>0.002933589980904296</v>
+        <v>0.002933591476705352</v>
       </c>
       <c r="M14">
-        <v>0.02273871933072528</v>
+        <v>0.02273870875334385</v>
       </c>
       <c r="N14">
-        <v>0.000205583713957322</v>
+        <v>0.0002055847760543284</v>
       </c>
       <c r="O14">
-        <v>3.356010498842789E-08</v>
+        <v>3.356011042584131E-08</v>
       </c>
       <c r="P14">
-        <v>5.088111597639306E-05</v>
+        <v>5.088115863757189E-05</v>
       </c>
       <c r="Q14">
-        <v>0.0001264466540902574</v>
+        <v>0.0001264466765494654</v>
       </c>
       <c r="R14">
-        <v>0.0001309210844944697</v>
+        <v>0.0001309211090140331</v>
       </c>
       <c r="S14">
-        <v>0.0002357829762520798</v>
+        <v>0.0002357832900975269</v>
       </c>
       <c r="T14">
-        <v>3.523299045845453E-10</v>
+        <v>3.523298905225752E-10</v>
       </c>
       <c r="U14">
-        <v>8.038469349827027E-08</v>
+        <v>8.038476980972415E-08</v>
       </c>
       <c r="V14">
-        <v>0.003052920059963011</v>
+        <v>0.003052920993959362</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1445,67 +1445,67 @@
         <v>34</v>
       </c>
       <c r="B15">
-        <v>0.0008694889994236557</v>
+        <v>6.249489417244106E-05</v>
       </c>
       <c r="C15">
-        <v>0.01744137793233663</v>
+        <v>0.01285170300504634</v>
       </c>
       <c r="D15">
-        <v>0.007534488146906168</v>
+        <v>0.002792339594392076</v>
       </c>
       <c r="E15">
-        <v>0.01028802442383592</v>
+        <v>0.003720088172757824</v>
       </c>
       <c r="F15">
-        <v>1.908031088024951</v>
+        <v>0.4425244123494649</v>
       </c>
       <c r="G15">
-        <v>0.004622564273706609</v>
+        <v>0.003063036936015497</v>
       </c>
       <c r="H15">
-        <v>1.32809742643471E-05</v>
+        <v>6.495436746108735E-06</v>
       </c>
       <c r="I15">
-        <v>2.281517559964449E-06</v>
+        <v>7.484962393332926E-07</v>
       </c>
       <c r="J15">
-        <v>0.0110460449285302</v>
+        <v>0.01600975933117598</v>
       </c>
       <c r="K15">
-        <v>0.1293909604392985</v>
+        <v>0.04190537718031033</v>
       </c>
       <c r="L15">
-        <v>0.001982239167620606</v>
+        <v>0.0008099261973484278</v>
       </c>
       <c r="M15">
-        <v>0.0005811739206395425</v>
+        <v>0.0004507696197772835</v>
       </c>
       <c r="N15">
-        <v>0.003450867573325909</v>
+        <v>0.001110122520410925</v>
       </c>
       <c r="O15">
-        <v>9.885787867502099E-09</v>
+        <v>3.68517694591309E-09</v>
       </c>
       <c r="P15">
-        <v>0.0002778094718839251</v>
+        <v>4.305806854127016E-05</v>
       </c>
       <c r="Q15">
-        <v>6.410695028769174E-05</v>
+        <v>3.349725577019415E-05</v>
       </c>
       <c r="R15">
-        <v>6.661414373127373E-05</v>
+        <v>3.501497967854909E-05</v>
       </c>
       <c r="S15">
-        <v>0.001017723695010102</v>
+        <v>9.843188228786661E-05</v>
       </c>
       <c r="T15">
-        <v>2.839170203322277E-10</v>
+        <v>6.948553802091968E-11</v>
       </c>
       <c r="U15">
-        <v>2.59100844273357E-07</v>
+        <v>1.019560643663885E-07</v>
       </c>
       <c r="V15">
-        <v>0.001988557764459031</v>
+        <v>0.000955931482907741</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1513,67 +1513,67 @@
         <v>35</v>
       </c>
       <c r="B16">
-        <v>5.367420350745607E-05</v>
+        <v>5.367420018288141E-05</v>
       </c>
       <c r="C16">
-        <v>0.01623028470842695</v>
+        <v>0.01623028363522869</v>
       </c>
       <c r="D16">
-        <v>0.003484677133467028</v>
+        <v>0.003484677044627102</v>
       </c>
       <c r="E16">
-        <v>0.004390462130056122</v>
+        <v>0.004390462012388322</v>
       </c>
       <c r="F16">
-        <v>0.1764627279822105</v>
+        <v>0.1764627183544281</v>
       </c>
       <c r="G16">
-        <v>0.004169948884327652</v>
+        <v>0.004169948683861234</v>
       </c>
       <c r="H16">
-        <v>1.420379340384306E-05</v>
+        <v>1.420379311574698E-05</v>
       </c>
       <c r="I16">
-        <v>1.423529272957082E-06</v>
+        <v>1.423529245625311E-06</v>
       </c>
       <c r="J16">
-        <v>0.001498456903453627</v>
+        <v>0.001498456571971883</v>
       </c>
       <c r="K16">
-        <v>0.04545673720178598</v>
+        <v>0.04545673573510711</v>
       </c>
       <c r="L16">
-        <v>0.004535809503117571</v>
+        <v>0.004535809469229532</v>
       </c>
       <c r="M16">
-        <v>0.003318171191551107</v>
+        <v>0.003318170827793202</v>
       </c>
       <c r="N16">
-        <v>0.0001855137862147646</v>
+        <v>0.0001855137466069453</v>
       </c>
       <c r="O16">
-        <v>1.752618648796339E-08</v>
+        <v>1.752618614827343E-08</v>
       </c>
       <c r="P16">
-        <v>1.849325537714182E-05</v>
+        <v>1.849325345135456E-05</v>
       </c>
       <c r="Q16">
-        <v>3.418728760765289E-05</v>
+        <v>3.418728410494557E-05</v>
       </c>
       <c r="R16">
-        <v>3.503057661905493E-05</v>
+        <v>3.503057302187168E-05</v>
       </c>
       <c r="S16">
-        <v>0.00028841189473513</v>
+        <v>0.0002884118904535188</v>
       </c>
       <c r="T16">
-        <v>1.051772042922877E-10</v>
+        <v>1.051771965124005E-10</v>
       </c>
       <c r="U16">
-        <v>4.273809664050741E-08</v>
+        <v>4.273809298605403E-08</v>
       </c>
       <c r="V16">
-        <v>0.000824189830257957</v>
+        <v>0.000824189766865019</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1581,67 +1581,67 @@
         <v>36</v>
       </c>
       <c r="B17">
-        <v>0.0002618355507729034</v>
+        <v>0.0002618355571552185</v>
       </c>
       <c r="C17">
-        <v>0.1899909409380152</v>
+        <v>0.1899909433523631</v>
       </c>
       <c r="D17">
-        <v>0.004747115055996457</v>
+        <v>0.004747115149446472</v>
       </c>
       <c r="E17">
-        <v>0.008434009676877446</v>
+        <v>0.008434009805778103</v>
       </c>
       <c r="F17">
-        <v>3.664689257625122</v>
+        <v>3.664689269879062</v>
       </c>
       <c r="G17">
-        <v>0.05987564707554873</v>
+        <v>0.05987564751008399</v>
       </c>
       <c r="H17">
-        <v>1.35791733454999E-05</v>
+        <v>1.357917386716529E-05</v>
       </c>
       <c r="I17">
-        <v>5.346281197201321E-06</v>
+        <v>5.346281255141496E-06</v>
       </c>
       <c r="J17">
-        <v>0.009841474871133925</v>
+        <v>0.00984147552644889</v>
       </c>
       <c r="K17">
-        <v>0.1495463858367841</v>
+        <v>0.1495463877548902</v>
       </c>
       <c r="L17">
-        <v>0.003088732874852739</v>
+        <v>0.003088732936390391</v>
       </c>
       <c r="M17">
-        <v>0.007242663465317218</v>
+        <v>0.007242663220241763</v>
       </c>
       <c r="N17">
-        <v>0.002141844633411418</v>
+        <v>0.002141844705012782</v>
       </c>
       <c r="O17">
-        <v>8.67453838560394E-08</v>
+        <v>8.674538453483445E-08</v>
       </c>
       <c r="P17">
-        <v>0.0001367145704258371</v>
+        <v>0.0001367145743409235</v>
       </c>
       <c r="Q17">
-        <v>0.0003025580370153547</v>
+        <v>0.0003025580443116393</v>
       </c>
       <c r="R17">
-        <v>0.0003422863325083439</v>
+        <v>0.0003422863400750323</v>
       </c>
       <c r="S17">
-        <v>0.0003092917076378539</v>
+        <v>0.0003092917163991669</v>
       </c>
       <c r="T17">
-        <v>7.51104870662415E-10</v>
+        <v>7.511048781448021E-10</v>
       </c>
       <c r="U17">
-        <v>3.300480863046985E-07</v>
+        <v>3.300480936463017E-07</v>
       </c>
       <c r="V17">
-        <v>0.02586315104248185</v>
+        <v>0.02586315117798527</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1649,67 +1649,67 @@
         <v>37</v>
       </c>
       <c r="B18">
-        <v>-0.001960372394113986</v>
+        <v>-0.001960372388329783</v>
       </c>
       <c r="C18">
-        <v>-0.4456404813158398</v>
+        <v>-0.4456404823501539</v>
       </c>
       <c r="D18">
-        <v>-0.04537182859869935</v>
+        <v>-0.04537182902498412</v>
       </c>
       <c r="E18">
-        <v>-0.06015808235974249</v>
+        <v>-0.06015808291537069</v>
       </c>
       <c r="F18">
-        <v>-1.512129518941395</v>
+        <v>-1.512129565659413</v>
       </c>
       <c r="G18">
-        <v>-0.1105926371496136</v>
+        <v>-0.110592637300003</v>
       </c>
       <c r="H18">
-        <v>-0.0003596275580626822</v>
+        <v>-0.0003596275590584187</v>
       </c>
       <c r="I18">
-        <v>-0.002855970012396116</v>
+        <v>-0.002855970012300981</v>
       </c>
       <c r="J18">
-        <v>-0.02563738713531942</v>
+        <v>-0.02563738836843025</v>
       </c>
       <c r="K18">
-        <v>-1.171873371464291</v>
+        <v>-1.171873376282674</v>
       </c>
       <c r="L18">
-        <v>-0.04337626360714891</v>
+        <v>-0.04337626378827059</v>
       </c>
       <c r="M18">
-        <v>-0.0173470532544253</v>
+        <v>-0.01734712633767962</v>
       </c>
       <c r="N18">
-        <v>-0.004300231223907195</v>
+        <v>-0.004300231225195746</v>
       </c>
       <c r="O18">
-        <v>-5.116582571463754E-07</v>
+        <v>-5.116582578277264E-07</v>
       </c>
       <c r="P18">
-        <v>-0.001009445025940083</v>
+        <v>-0.001009445028969291</v>
       </c>
       <c r="Q18">
-        <v>-0.001151205767966534</v>
+        <v>-0.001151205769064487</v>
       </c>
       <c r="R18">
-        <v>-0.001187084084748617</v>
+        <v>-0.001187084085738245</v>
       </c>
       <c r="S18">
-        <v>-0.003746186858445483</v>
+        <v>-0.003746186866048346</v>
       </c>
       <c r="T18">
-        <v>-2.271545118089733E-09</v>
+        <v>-2.271545770177672E-09</v>
       </c>
       <c r="U18">
-        <v>-1.410274340040291E-06</v>
+        <v>-1.410274348115999E-06</v>
       </c>
       <c r="V18">
-        <v>-0.0249960719641232</v>
+        <v>-0.02499607196577499</v>
       </c>
     </row>
   </sheetData>
